--- a/src/main/resources/excel/IndustryResource.xlsx
+++ b/src/main/resources/excel/IndustryResource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453023B7-54DC-4D99-A0E0-F2E0F5D2E221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D14D9B2-6142-4F65-A42A-3AA55F1626A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="721">
   <si>
     <t>阿里巴巴概念</t>
   </si>
@@ -238,11 +238,11 @@
   </si>
   <si>
     <t>概念板块代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>301558</t>
@@ -257,30 +257,6 @@
     <t>308594</t>
   </si>
   <si>
-    <r>
-      <t>标普道琼斯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF262626"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF262626"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股</t>
-    </r>
-  </si>
-  <si>
     <t>301259</t>
   </si>
   <si>
@@ -357,20 +333,6 @@
   </si>
   <si>
     <t>307816</t>
-  </si>
-  <si>
-    <r>
-      <t>国家大基金持股</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF262626"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>300835</t>
@@ -1165,1096 +1127,1093 @@
     <t>室外经济</t>
   </si>
   <si>
+    <t>首发新股</t>
+  </si>
+  <si>
+    <t>301050</t>
+  </si>
+  <si>
+    <t>手机游戏</t>
+  </si>
+  <si>
+    <t>300345</t>
+  </si>
+  <si>
+    <t>水利</t>
+  </si>
+  <si>
+    <t>307826</t>
+  </si>
+  <si>
+    <t>水泥概念</t>
+  </si>
+  <si>
+    <t>308801</t>
+  </si>
+  <si>
+    <t>数据安全</t>
+  </si>
+  <si>
+    <t>308642</t>
+  </si>
+  <si>
+    <t>数据中心</t>
+  </si>
+  <si>
+    <t>301997</t>
+  </si>
+  <si>
+    <t>数字货币</t>
+  </si>
+  <si>
+    <t>308479</t>
+  </si>
+  <si>
+    <t>数字孪生</t>
+  </si>
+  <si>
+    <t>308525</t>
+  </si>
+  <si>
+    <t>数字乡村</t>
+  </si>
+  <si>
+    <t>308296</t>
+  </si>
+  <si>
+    <t>送转填权</t>
+  </si>
+  <si>
+    <t>300862</t>
+  </si>
+  <si>
+    <t>ST板块</t>
+  </si>
+  <si>
+    <t>301171</t>
+  </si>
+  <si>
+    <t>深圳国资改革</t>
+  </si>
+  <si>
+    <t>300351</t>
+  </si>
+  <si>
+    <t>钛白粉概念</t>
+  </si>
+  <si>
+    <t>308620</t>
+  </si>
+  <si>
+    <t>胎压监测</t>
+  </si>
+  <si>
+    <t>300352</t>
+  </si>
+  <si>
+    <t>碳纤维</t>
+  </si>
+  <si>
+    <t>308728</t>
+  </si>
+  <si>
+    <t>碳中和</t>
+  </si>
+  <si>
+    <t>300845</t>
+  </si>
+  <si>
+    <t>特钢概念</t>
+  </si>
+  <si>
+    <t>300353</t>
+  </si>
+  <si>
+    <t>特高压</t>
+  </si>
+  <si>
+    <t>302010</t>
+  </si>
+  <si>
+    <t>腾讯概念</t>
+  </si>
+  <si>
+    <t>302674</t>
+  </si>
+  <si>
+    <t>特色小镇</t>
+  </si>
+  <si>
+    <t>301121</t>
+  </si>
+  <si>
+    <t>特斯拉</t>
+  </si>
+  <si>
+    <t>301229</t>
+  </si>
+  <si>
+    <t>天津自贸区</t>
+  </si>
+  <si>
+    <t>300358</t>
+  </si>
+  <si>
+    <t>天然气</t>
+  </si>
+  <si>
+    <t>301605</t>
+  </si>
+  <si>
+    <t>体育产业</t>
+  </si>
+  <si>
+    <t>308718</t>
+  </si>
+  <si>
+    <t>同花顺漂亮100</t>
+  </si>
+  <si>
+    <t>300362</t>
+  </si>
+  <si>
+    <t>通用航空</t>
+  </si>
+  <si>
+    <t>300858</t>
+  </si>
+  <si>
+    <t>土地流转</t>
+  </si>
+  <si>
+    <t>302059</t>
+  </si>
+  <si>
+    <t>网络直播</t>
+  </si>
+  <si>
+    <t>308630</t>
+  </si>
+  <si>
+    <t>网红经济</t>
+  </si>
+  <si>
+    <t>300019</t>
+  </si>
+  <si>
+    <t>网络游戏</t>
+  </si>
+  <si>
+    <t>302142</t>
+  </si>
+  <si>
+    <t>网约车</t>
+  </si>
+  <si>
+    <t>308300</t>
+  </si>
+  <si>
+    <t>MCU芯片</t>
+  </si>
+  <si>
+    <t>300722</t>
+  </si>
+  <si>
+    <t>卫星导航</t>
+  </si>
+  <si>
+    <t>300806</t>
+  </si>
+  <si>
+    <t>文化传媒</t>
+  </si>
+  <si>
+    <t>308791</t>
+  </si>
+  <si>
+    <t>WiFi 6</t>
+  </si>
+  <si>
+    <t>300378</t>
+  </si>
+  <si>
+    <t>物联网</t>
+  </si>
+  <si>
+    <t>300889</t>
+  </si>
+  <si>
+    <t>无人机</t>
+  </si>
+  <si>
+    <t>301286</t>
+  </si>
+  <si>
+    <t>无人驾驶</t>
+  </si>
+  <si>
+    <t>304756</t>
+  </si>
+  <si>
+    <t>无人零售</t>
+  </si>
+  <si>
+    <t>300374</t>
+  </si>
+  <si>
+    <t>污水处理</t>
+  </si>
+  <si>
+    <t>300723</t>
+  </si>
+  <si>
+    <t>无线充电</t>
+  </si>
+  <si>
+    <t>308612</t>
+  </si>
+  <si>
+    <t>无线耳机</t>
+  </si>
+  <si>
+    <t>308717</t>
+  </si>
+  <si>
+    <t>物业管理</t>
+  </si>
+  <si>
+    <t>302170</t>
+  </si>
+  <si>
+    <t>微信小程序</t>
+  </si>
+  <si>
+    <t>302182</t>
+  </si>
+  <si>
+    <t>雄安新区</t>
+  </si>
+  <si>
+    <t>300836</t>
+  </si>
+  <si>
+    <t>乡村振兴</t>
+  </si>
+  <si>
+    <t>308636</t>
+  </si>
+  <si>
+    <t>消毒剂</t>
+  </si>
+  <si>
+    <t>308384</t>
+  </si>
+  <si>
+    <t>消费电子概念</t>
+  </si>
+  <si>
+    <t>300809</t>
+  </si>
+  <si>
+    <t>小金属概念</t>
+  </si>
+  <si>
+    <t>301278</t>
+  </si>
+  <si>
+    <t>小米概念</t>
+  </si>
+  <si>
+    <t>301543</t>
+  </si>
+  <si>
+    <t>细胞免疫治疗</t>
+  </si>
+  <si>
+    <t>300883</t>
+  </si>
+  <si>
+    <t>新材料概念</t>
+  </si>
+  <si>
+    <t>300870</t>
+  </si>
+  <si>
+    <t>新股与次新股</t>
+  </si>
+  <si>
+    <t>300386</t>
+  </si>
+  <si>
+    <t>新疆振兴</t>
+  </si>
+  <si>
+    <t>302436</t>
+  </si>
+  <si>
+    <t>新零售</t>
+  </si>
+  <si>
+    <t>300008</t>
+  </si>
+  <si>
+    <t>新能源汽车</t>
+  </si>
+  <si>
+    <t>301085</t>
+  </si>
+  <si>
+    <t>芯片概念</t>
+  </si>
+  <si>
+    <t>308650</t>
+  </si>
+  <si>
+    <t>新三板精选层概念</t>
+  </si>
+  <si>
+    <t>301377</t>
+  </si>
+  <si>
+    <t>信托概念</t>
+  </si>
+  <si>
+    <t>300756</t>
+  </si>
+  <si>
+    <t>网络安全</t>
+  </si>
+  <si>
+    <t>301362</t>
+  </si>
+  <si>
+    <t>新型烟草</t>
+  </si>
+  <si>
+    <t>300777</t>
+  </si>
+  <si>
+    <t>稀缺资源</t>
+  </si>
+  <si>
+    <t>300382</t>
+  </si>
+  <si>
+    <t>稀土永磁</t>
+  </si>
+  <si>
+    <t>301699</t>
+  </si>
+  <si>
+    <t>虚拟现实</t>
+  </si>
+  <si>
+    <t>308733</t>
+  </si>
+  <si>
+    <t>牙科医疗</t>
+  </si>
+  <si>
+    <t>308560</t>
+  </si>
+  <si>
+    <t>烟草</t>
+  </si>
+  <si>
+    <t>301576</t>
+  </si>
+  <si>
+    <t>养鸡</t>
+  </si>
+  <si>
+    <t>301494</t>
+  </si>
+  <si>
+    <t>养老概念</t>
+  </si>
+  <si>
+    <t>301546</t>
+  </si>
+  <si>
+    <t>央企国资改革</t>
+  </si>
+  <si>
+    <t>307904</t>
+  </si>
+  <si>
+    <t>盐湖提锂</t>
+  </si>
+  <si>
+    <t>301252</t>
+  </si>
+  <si>
+    <t>眼科医疗</t>
+  </si>
+  <si>
+    <t>300402</t>
+  </si>
+  <si>
+    <t>页岩气</t>
+  </si>
+  <si>
+    <t>301365</t>
+  </si>
+  <si>
+    <t>一带一路</t>
+  </si>
+  <si>
+    <t>300188</t>
+  </si>
+  <si>
+    <t>移动支付</t>
+  </si>
+  <si>
+    <t>308638</t>
+  </si>
+  <si>
+    <t>医疗废物处理</t>
+  </si>
+  <si>
+    <t>308712</t>
+  </si>
+  <si>
+    <t>医美概念</t>
+  </si>
+  <si>
+    <t>301505</t>
+  </si>
+  <si>
+    <t>医疗器械概念</t>
+  </si>
+  <si>
+    <t>301279</t>
+  </si>
+  <si>
+    <t>有机硅概念</t>
+  </si>
+  <si>
+    <t>308752</t>
+  </si>
+  <si>
+    <t>元宇宙</t>
+  </si>
+  <si>
+    <t>301491</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区</t>
+  </si>
+  <si>
+    <t>301572</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>308634</t>
+  </si>
+  <si>
+    <t>云办公</t>
+  </si>
+  <si>
+    <t>300419</t>
+  </si>
+  <si>
+    <t>云计算</t>
+  </si>
+  <si>
+    <t>308624</t>
+  </si>
+  <si>
+    <t>云游戏</t>
+  </si>
+  <si>
+    <t>300917</t>
+  </si>
+  <si>
+    <t>语音技术</t>
+  </si>
+  <si>
+    <t>301565</t>
+  </si>
+  <si>
+    <t>医药电商</t>
+  </si>
+  <si>
+    <t>301227</t>
+  </si>
+  <si>
+    <t>在线教育</t>
+  </si>
+  <si>
+    <t>301223</t>
+  </si>
+  <si>
+    <t>在线旅游</t>
+  </si>
+  <si>
+    <t>301713</t>
+  </si>
+  <si>
+    <t>中船系</t>
+  </si>
+  <si>
+    <t>302046</t>
+  </si>
+  <si>
+    <t>债转股</t>
+  </si>
+  <si>
+    <t>300642</t>
+  </si>
+  <si>
+    <t>智慧城市</t>
+  </si>
+  <si>
+    <t>301175</t>
+  </si>
+  <si>
+    <t>智能穿戴</t>
+  </si>
+  <si>
+    <t>300037</t>
+  </si>
+  <si>
+    <t>智能电网</t>
+  </si>
+  <si>
+    <t>300920</t>
+  </si>
+  <si>
+    <t>智能家居</t>
+  </si>
+  <si>
+    <t>300440</t>
+  </si>
+  <si>
+    <t>智能交通</t>
+  </si>
+  <si>
+    <t>301797</t>
+  </si>
+  <si>
+    <t>智能物流</t>
+  </si>
+  <si>
+    <t>300682</t>
+  </si>
+  <si>
+    <t>智能医疗</t>
+  </si>
+  <si>
+    <t>302131</t>
+  </si>
+  <si>
+    <t>智能音箱</t>
+  </si>
+  <si>
+    <t>308792</t>
+  </si>
+  <si>
+    <t>智能制造</t>
+  </si>
+  <si>
+    <t>308172</t>
+  </si>
+  <si>
+    <t>知识产权保护</t>
+  </si>
+  <si>
+    <t>301539</t>
+  </si>
+  <si>
+    <t>职业教育</t>
+  </si>
+  <si>
+    <t>301541</t>
+  </si>
+  <si>
+    <t>中韩自贸区</t>
+  </si>
+  <si>
+    <t>308690</t>
+  </si>
+  <si>
+    <t>中芯国际概念</t>
+  </si>
+  <si>
+    <t>300704</t>
+  </si>
+  <si>
+    <t>中字头股票</t>
+  </si>
+  <si>
+    <t>308740</t>
+  </si>
+  <si>
+    <t>专精特新</t>
+  </si>
+  <si>
+    <t>300435</t>
+  </si>
+  <si>
+    <t>转基因</t>
+  </si>
+  <si>
+    <t>308697</t>
+  </si>
+  <si>
+    <t>注册制次新股</t>
+  </si>
+  <si>
+    <t>300451</t>
+  </si>
+  <si>
+    <t>猪肉</t>
+  </si>
+  <si>
+    <t>301715</t>
+  </si>
+  <si>
+    <t>证金持股</t>
+  </si>
+  <si>
+    <t>301455</t>
+  </si>
+  <si>
+    <t>摘帽</t>
+  </si>
+  <si>
+    <t>305794</t>
+  </si>
+  <si>
+    <t>装配式建筑</t>
+  </si>
+  <si>
+    <t>301100</t>
+  </si>
+  <si>
+    <t>足球概念</t>
+  </si>
+  <si>
+    <t>302034</t>
+  </si>
+  <si>
+    <t>租售同权</t>
+  </si>
+  <si>
+    <t>306398</t>
+  </si>
+  <si>
+    <t>自由贸易港</t>
+  </si>
+  <si>
+    <t>300127</t>
+  </si>
+  <si>
+    <t>3D打印</t>
+  </si>
+  <si>
+    <t>300843</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>881131</t>
+  </si>
+  <si>
+    <t>白色家电</t>
+  </si>
+  <si>
+    <t>881156</t>
+  </si>
+  <si>
+    <t>保险及其他</t>
+  </si>
+  <si>
+    <t>881138</t>
+  </si>
+  <si>
+    <t>包装印刷</t>
+  </si>
+  <si>
+    <t>881164</t>
+  </si>
+  <si>
+    <t>传媒</t>
+  </si>
+  <si>
+    <t>881174</t>
+  </si>
+  <si>
+    <t>厨卫电器</t>
+  </si>
+  <si>
+    <t>881145</t>
+  </si>
+  <si>
+    <t>电力</t>
+  </si>
+  <si>
+    <t>881120</t>
+  </si>
+  <si>
+    <t>电力设备</t>
+  </si>
+  <si>
+    <t>881172</t>
+  </si>
+  <si>
+    <t>电子化学品</t>
+  </si>
+  <si>
+    <t>881176</t>
+  </si>
+  <si>
+    <t>881153</t>
+  </si>
+  <si>
+    <t>881167</t>
+  </si>
+  <si>
+    <t>881127</t>
+  </si>
+  <si>
+    <t>881136</t>
+  </si>
+  <si>
+    <t>881135</t>
+  </si>
+  <si>
+    <t>881166</t>
+  </si>
+  <si>
+    <t>881169</t>
+  </si>
+  <si>
+    <t>881148</t>
+  </si>
+  <si>
+    <t>881149</t>
+  </si>
+  <si>
+    <t>881112</t>
+  </si>
+  <si>
+    <t>881122</t>
+  </si>
+  <si>
+    <t>881168</t>
+  </si>
+  <si>
+    <t>881181</t>
+  </si>
+  <si>
+    <t>881110</t>
+  </si>
+  <si>
+    <t>881177</t>
+  </si>
+  <si>
+    <t>881132</t>
+  </si>
+  <si>
+    <t>881108</t>
+  </si>
+  <si>
+    <t>881109</t>
+  </si>
+  <si>
+    <t>881140</t>
+  </si>
+  <si>
+    <t>881151</t>
+  </si>
+  <si>
+    <t>881161</t>
+  </si>
+  <si>
+    <t>881160</t>
+  </si>
+  <si>
+    <t>881130</t>
+  </si>
+  <si>
+    <t>881163</t>
+  </si>
+  <si>
+    <t>881114</t>
+  </si>
+  <si>
+    <t>881178</t>
+  </si>
+  <si>
+    <t>881139</t>
+  </si>
+  <si>
+    <t>881115</t>
+  </si>
+  <si>
+    <t>881116</t>
+  </si>
+  <si>
+    <t>881158</t>
+  </si>
+  <si>
+    <t>零售</t>
+  </si>
+  <si>
+    <t>881182</t>
+  </si>
+  <si>
+    <t>美容护理</t>
+  </si>
+  <si>
+    <t>881105</t>
+  </si>
+  <si>
+    <t>煤炭开采加工</t>
+  </si>
+  <si>
+    <t>881159</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>881103</t>
+  </si>
+  <si>
+    <t>农产品加工</t>
+  </si>
+  <si>
+    <t>881104</t>
+  </si>
+  <si>
+    <t>农业服务</t>
+  </si>
+  <si>
+    <t>881128</t>
+  </si>
+  <si>
+    <t>汽车服务</t>
+  </si>
+  <si>
+    <t>881126</t>
+  </si>
+  <si>
+    <t>汽车零部件</t>
+  </si>
+  <si>
+    <t>881125</t>
+  </si>
+  <si>
+    <t>汽车整车</t>
+  </si>
+  <si>
+    <t>881123</t>
+  </si>
+  <si>
+    <t>其他电子</t>
+  </si>
+  <si>
+    <t>881179</t>
+  </si>
+  <si>
+    <t>其他社会服务</t>
+  </si>
+  <si>
+    <t>881146</t>
+  </si>
+  <si>
+    <t>燃气</t>
+  </si>
+  <si>
+    <t>881134</t>
+  </si>
+  <si>
+    <t>食品加工制造</t>
+  </si>
+  <si>
+    <t>881142</t>
+  </si>
+  <si>
+    <t>生物制品</t>
+  </si>
+  <si>
+    <t>881180</t>
+  </si>
+  <si>
+    <t>石油加工贸易</t>
+  </si>
+  <si>
+    <t>881162</t>
+  </si>
+  <si>
+    <t>通信服务</t>
+  </si>
+  <si>
+    <t>881129</t>
+  </si>
+  <si>
+    <t>通信设备</t>
+  </si>
+  <si>
+    <t>881117</t>
+  </si>
+  <si>
+    <t>通用设备</t>
+  </si>
+  <si>
+    <t>881152</t>
+  </si>
+  <si>
+    <t>物流</t>
+  </si>
+  <si>
+    <t>881124</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>881173</t>
+  </si>
+  <si>
+    <t>小家电</t>
+  </si>
+  <si>
+    <t>881170</t>
+  </si>
+  <si>
+    <t>小金属</t>
+  </si>
+  <si>
+    <t>881175</t>
+  </si>
+  <si>
+    <t>医疗服务</t>
+  </si>
+  <si>
+    <t>881144</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>881133</t>
+  </si>
+  <si>
+    <t>饮料制造</t>
+  </si>
+  <si>
+    <t>881107</t>
+  </si>
+  <si>
+    <t>油气开采及服务</t>
+  </si>
+  <si>
+    <t>881119</t>
+  </si>
+  <si>
+    <t>仪器仪表</t>
+  </si>
+  <si>
+    <t>881155</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>881143</t>
+  </si>
+  <si>
+    <t>医药商业</t>
+  </si>
+  <si>
+    <t>881102</t>
+  </si>
+  <si>
+    <t>养殖业</t>
+  </si>
+  <si>
+    <t>881171</t>
+  </si>
+  <si>
+    <t>自动化设备</t>
+  </si>
+  <si>
+    <t>881165</t>
+  </si>
+  <si>
+    <t>综合</t>
+  </si>
+  <si>
+    <t>881157</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>881141</t>
+  </si>
+  <si>
+    <t>中药</t>
+  </si>
+  <si>
+    <t>881118</t>
+  </si>
+  <si>
+    <t>专用设备</t>
+  </si>
+  <si>
+    <t>881137</t>
+  </si>
+  <si>
+    <t>造纸</t>
+  </si>
+  <si>
+    <t>881101</t>
+  </si>
+  <si>
+    <t>种植业与林业</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普道琼斯A股</t>
+  </si>
+  <si>
+    <t>国家大基金持股</t>
+  </si>
+  <si>
     <t>301531</t>
-  </si>
-  <si>
-    <t>首发新股</t>
-  </si>
-  <si>
-    <t>301050</t>
-  </si>
-  <si>
-    <t>手机游戏</t>
-  </si>
-  <si>
-    <t>300345</t>
-  </si>
-  <si>
-    <t>水利</t>
-  </si>
-  <si>
-    <t>307826</t>
-  </si>
-  <si>
-    <t>水泥概念</t>
-  </si>
-  <si>
-    <t>308801</t>
-  </si>
-  <si>
-    <t>数据安全</t>
-  </si>
-  <si>
-    <t>308642</t>
-  </si>
-  <si>
-    <t>数据中心</t>
-  </si>
-  <si>
-    <t>301997</t>
-  </si>
-  <si>
-    <t>数字货币</t>
-  </si>
-  <si>
-    <t>308479</t>
-  </si>
-  <si>
-    <t>数字孪生</t>
-  </si>
-  <si>
-    <t>308525</t>
-  </si>
-  <si>
-    <t>数字乡村</t>
-  </si>
-  <si>
-    <t>308296</t>
-  </si>
-  <si>
-    <t>送转填权</t>
-  </si>
-  <si>
-    <t>300862</t>
-  </si>
-  <si>
-    <t>ST板块</t>
-  </si>
-  <si>
-    <t>301171</t>
-  </si>
-  <si>
-    <t>深圳国资改革</t>
-  </si>
-  <si>
-    <t>300351</t>
-  </si>
-  <si>
-    <t>钛白粉概念</t>
-  </si>
-  <si>
-    <t>308620</t>
-  </si>
-  <si>
-    <t>胎压监测</t>
-  </si>
-  <si>
-    <t>300352</t>
-  </si>
-  <si>
-    <t>碳纤维</t>
-  </si>
-  <si>
-    <t>308728</t>
-  </si>
-  <si>
-    <t>碳中和</t>
-  </si>
-  <si>
-    <t>300845</t>
-  </si>
-  <si>
-    <t>特钢概念</t>
-  </si>
-  <si>
-    <t>300353</t>
-  </si>
-  <si>
-    <t>特高压</t>
-  </si>
-  <si>
-    <t>302010</t>
-  </si>
-  <si>
-    <t>腾讯概念</t>
-  </si>
-  <si>
-    <t>302674</t>
-  </si>
-  <si>
-    <t>特色小镇</t>
-  </si>
-  <si>
-    <t>301121</t>
-  </si>
-  <si>
-    <t>特斯拉</t>
-  </si>
-  <si>
-    <t>301229</t>
-  </si>
-  <si>
-    <t>天津自贸区</t>
-  </si>
-  <si>
-    <t>300358</t>
-  </si>
-  <si>
-    <t>天然气</t>
-  </si>
-  <si>
-    <t>301605</t>
-  </si>
-  <si>
-    <t>体育产业</t>
-  </si>
-  <si>
-    <t>308718</t>
-  </si>
-  <si>
-    <t>同花顺漂亮100</t>
-  </si>
-  <si>
-    <t>300362</t>
-  </si>
-  <si>
-    <t>通用航空</t>
-  </si>
-  <si>
-    <t>300858</t>
-  </si>
-  <si>
-    <t>土地流转</t>
-  </si>
-  <si>
-    <t>302059</t>
-  </si>
-  <si>
-    <t>网络直播</t>
-  </si>
-  <si>
-    <t>308630</t>
-  </si>
-  <si>
-    <t>网红经济</t>
-  </si>
-  <si>
-    <t>300019</t>
-  </si>
-  <si>
-    <t>网络游戏</t>
-  </si>
-  <si>
-    <t>302142</t>
-  </si>
-  <si>
-    <t>网约车</t>
-  </si>
-  <si>
-    <t>308300</t>
-  </si>
-  <si>
-    <t>MCU芯片</t>
-  </si>
-  <si>
-    <t>300722</t>
-  </si>
-  <si>
-    <t>卫星导航</t>
-  </si>
-  <si>
-    <t>300806</t>
-  </si>
-  <si>
-    <t>文化传媒</t>
-  </si>
-  <si>
-    <t>308791</t>
-  </si>
-  <si>
-    <t>WiFi 6</t>
-  </si>
-  <si>
-    <t>300378</t>
-  </si>
-  <si>
-    <t>物联网</t>
-  </si>
-  <si>
-    <t>300889</t>
-  </si>
-  <si>
-    <t>无人机</t>
-  </si>
-  <si>
-    <t>301286</t>
-  </si>
-  <si>
-    <t>无人驾驶</t>
-  </si>
-  <si>
-    <t>304756</t>
-  </si>
-  <si>
-    <t>无人零售</t>
-  </si>
-  <si>
-    <t>300374</t>
-  </si>
-  <si>
-    <t>污水处理</t>
-  </si>
-  <si>
-    <t>300723</t>
-  </si>
-  <si>
-    <t>无线充电</t>
-  </si>
-  <si>
-    <t>308612</t>
-  </si>
-  <si>
-    <t>无线耳机</t>
-  </si>
-  <si>
-    <t>308717</t>
-  </si>
-  <si>
-    <t>物业管理</t>
-  </si>
-  <si>
-    <t>302170</t>
-  </si>
-  <si>
-    <t>微信小程序</t>
-  </si>
-  <si>
-    <t>302182</t>
-  </si>
-  <si>
-    <t>雄安新区</t>
-  </si>
-  <si>
-    <t>300836</t>
-  </si>
-  <si>
-    <t>乡村振兴</t>
-  </si>
-  <si>
-    <t>308636</t>
-  </si>
-  <si>
-    <t>消毒剂</t>
-  </si>
-  <si>
-    <t>308384</t>
-  </si>
-  <si>
-    <t>消费电子概念</t>
-  </si>
-  <si>
-    <t>300809</t>
-  </si>
-  <si>
-    <t>小金属概念</t>
-  </si>
-  <si>
-    <t>301278</t>
-  </si>
-  <si>
-    <t>小米概念</t>
-  </si>
-  <si>
-    <t>301543</t>
-  </si>
-  <si>
-    <t>细胞免疫治疗</t>
-  </si>
-  <si>
-    <t>300883</t>
-  </si>
-  <si>
-    <t>新材料概念</t>
-  </si>
-  <si>
-    <t>300870</t>
-  </si>
-  <si>
-    <t>新股与次新股</t>
-  </si>
-  <si>
-    <t>300386</t>
-  </si>
-  <si>
-    <t>新疆振兴</t>
-  </si>
-  <si>
-    <t>302436</t>
-  </si>
-  <si>
-    <t>新零售</t>
-  </si>
-  <si>
-    <t>300008</t>
-  </si>
-  <si>
-    <t>新能源汽车</t>
-  </si>
-  <si>
-    <t>301085</t>
-  </si>
-  <si>
-    <t>芯片概念</t>
-  </si>
-  <si>
-    <t>308650</t>
-  </si>
-  <si>
-    <t>新三板精选层概念</t>
-  </si>
-  <si>
-    <t>301377</t>
-  </si>
-  <si>
-    <t>信托概念</t>
-  </si>
-  <si>
-    <t>300756</t>
-  </si>
-  <si>
-    <t>网络安全</t>
-  </si>
-  <si>
-    <t>301362</t>
-  </si>
-  <si>
-    <t>新型烟草</t>
-  </si>
-  <si>
-    <t>300777</t>
-  </si>
-  <si>
-    <t>稀缺资源</t>
-  </si>
-  <si>
-    <t>300382</t>
-  </si>
-  <si>
-    <t>稀土永磁</t>
-  </si>
-  <si>
-    <t>301699</t>
-  </si>
-  <si>
-    <t>虚拟现实</t>
-  </si>
-  <si>
-    <t>308733</t>
-  </si>
-  <si>
-    <t>牙科医疗</t>
-  </si>
-  <si>
-    <t>308560</t>
-  </si>
-  <si>
-    <t>烟草</t>
-  </si>
-  <si>
-    <t>301576</t>
-  </si>
-  <si>
-    <t>养鸡</t>
-  </si>
-  <si>
-    <t>301494</t>
-  </si>
-  <si>
-    <t>养老概念</t>
-  </si>
-  <si>
-    <t>301546</t>
-  </si>
-  <si>
-    <t>央企国资改革</t>
-  </si>
-  <si>
-    <t>307904</t>
-  </si>
-  <si>
-    <t>盐湖提锂</t>
-  </si>
-  <si>
-    <t>301252</t>
-  </si>
-  <si>
-    <t>眼科医疗</t>
-  </si>
-  <si>
-    <t>300402</t>
-  </si>
-  <si>
-    <t>页岩气</t>
-  </si>
-  <si>
-    <t>301365</t>
-  </si>
-  <si>
-    <t>一带一路</t>
-  </si>
-  <si>
-    <t>300188</t>
-  </si>
-  <si>
-    <t>移动支付</t>
-  </si>
-  <si>
-    <t>308638</t>
-  </si>
-  <si>
-    <t>医疗废物处理</t>
-  </si>
-  <si>
-    <t>308712</t>
-  </si>
-  <si>
-    <t>医美概念</t>
-  </si>
-  <si>
-    <t>301505</t>
-  </si>
-  <si>
-    <t>医疗器械概念</t>
-  </si>
-  <si>
-    <t>301279</t>
-  </si>
-  <si>
-    <t>有机硅概念</t>
-  </si>
-  <si>
-    <t>308752</t>
-  </si>
-  <si>
-    <t>元宇宙</t>
-  </si>
-  <si>
-    <t>301491</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区</t>
-  </si>
-  <si>
-    <t>301572</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>308634</t>
-  </si>
-  <si>
-    <t>云办公</t>
-  </si>
-  <si>
-    <t>300419</t>
-  </si>
-  <si>
-    <t>云计算</t>
-  </si>
-  <si>
-    <t>308624</t>
-  </si>
-  <si>
-    <t>云游戏</t>
-  </si>
-  <si>
-    <t>300917</t>
-  </si>
-  <si>
-    <t>语音技术</t>
-  </si>
-  <si>
-    <t>301565</t>
-  </si>
-  <si>
-    <t>医药电商</t>
-  </si>
-  <si>
-    <t>301227</t>
-  </si>
-  <si>
-    <t>在线教育</t>
-  </si>
-  <si>
-    <t>301223</t>
-  </si>
-  <si>
-    <t>在线旅游</t>
-  </si>
-  <si>
-    <t>301713</t>
-  </si>
-  <si>
-    <t>中船系</t>
-  </si>
-  <si>
-    <t>302046</t>
-  </si>
-  <si>
-    <t>债转股</t>
-  </si>
-  <si>
-    <t>300642</t>
-  </si>
-  <si>
-    <t>智慧城市</t>
-  </si>
-  <si>
-    <t>301175</t>
-  </si>
-  <si>
-    <t>智能穿戴</t>
-  </si>
-  <si>
-    <t>300037</t>
-  </si>
-  <si>
-    <t>智能电网</t>
-  </si>
-  <si>
-    <t>300920</t>
-  </si>
-  <si>
-    <t>智能家居</t>
-  </si>
-  <si>
-    <t>300440</t>
-  </si>
-  <si>
-    <t>智能交通</t>
-  </si>
-  <si>
-    <t>301797</t>
-  </si>
-  <si>
-    <t>智能物流</t>
-  </si>
-  <si>
-    <t>300682</t>
-  </si>
-  <si>
-    <t>智能医疗</t>
-  </si>
-  <si>
-    <t>302131</t>
-  </si>
-  <si>
-    <t>智能音箱</t>
-  </si>
-  <si>
-    <t>308792</t>
-  </si>
-  <si>
-    <t>智能制造</t>
-  </si>
-  <si>
-    <t>308172</t>
-  </si>
-  <si>
-    <t>知识产权保护</t>
-  </si>
-  <si>
-    <t>301539</t>
-  </si>
-  <si>
-    <t>职业教育</t>
-  </si>
-  <si>
-    <t>301541</t>
-  </si>
-  <si>
-    <t>中韩自贸区</t>
-  </si>
-  <si>
-    <t>308690</t>
-  </si>
-  <si>
-    <t>中芯国际概念</t>
-  </si>
-  <si>
-    <t>300704</t>
-  </si>
-  <si>
-    <t>中字头股票</t>
-  </si>
-  <si>
-    <t>308740</t>
-  </si>
-  <si>
-    <t>专精特新</t>
-  </si>
-  <si>
-    <t>300435</t>
-  </si>
-  <si>
-    <t>转基因</t>
-  </si>
-  <si>
-    <t>308697</t>
-  </si>
-  <si>
-    <t>注册制次新股</t>
-  </si>
-  <si>
-    <t>300451</t>
-  </si>
-  <si>
-    <t>猪肉</t>
-  </si>
-  <si>
-    <t>301715</t>
-  </si>
-  <si>
-    <t>证金持股</t>
-  </si>
-  <si>
-    <t>301455</t>
-  </si>
-  <si>
-    <t>摘帽</t>
-  </si>
-  <si>
-    <t>305794</t>
-  </si>
-  <si>
-    <t>装配式建筑</t>
-  </si>
-  <si>
-    <t>301100</t>
-  </si>
-  <si>
-    <t>足球概念</t>
-  </si>
-  <si>
-    <t>302034</t>
-  </si>
-  <si>
-    <t>租售同权</t>
-  </si>
-  <si>
-    <t>306398</t>
-  </si>
-  <si>
-    <t>自由贸易港</t>
-  </si>
-  <si>
-    <t>300127</t>
-  </si>
-  <si>
-    <t>3D打印</t>
-  </si>
-  <si>
-    <t>300843</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>881121</t>
-  </si>
-  <si>
-    <t>半导体及元件</t>
-  </si>
-  <si>
-    <t>881131</t>
-  </si>
-  <si>
-    <t>白色家电</t>
-  </si>
-  <si>
-    <t>881156</t>
-  </si>
-  <si>
-    <t>保险及其他</t>
-  </si>
-  <si>
-    <t>881138</t>
-  </si>
-  <si>
-    <t>包装印刷</t>
-  </si>
-  <si>
-    <t>881164</t>
-  </si>
-  <si>
-    <t>传媒</t>
-  </si>
-  <si>
-    <t>881174</t>
-  </si>
-  <si>
-    <t>厨卫电器</t>
-  </si>
-  <si>
-    <t>881145</t>
-  </si>
-  <si>
-    <t>电力</t>
-  </si>
-  <si>
-    <t>881120</t>
-  </si>
-  <si>
-    <t>电力设备</t>
-  </si>
-  <si>
-    <t>881172</t>
-  </si>
-  <si>
-    <t>电子化学品</t>
-  </si>
-  <si>
-    <t>881176</t>
-  </si>
-  <si>
-    <t>881153</t>
-  </si>
-  <si>
-    <t>881167</t>
-  </si>
-  <si>
-    <t>881127</t>
-  </si>
-  <si>
-    <t>881136</t>
-  </si>
-  <si>
-    <t>881135</t>
-  </si>
-  <si>
-    <t>881166</t>
-  </si>
-  <si>
-    <t>881169</t>
-  </si>
-  <si>
-    <t>881148</t>
-  </si>
-  <si>
-    <t>881149</t>
-  </si>
-  <si>
-    <t>881112</t>
-  </si>
-  <si>
-    <t>881122</t>
-  </si>
-  <si>
-    <t>881168</t>
-  </si>
-  <si>
-    <t>881181</t>
-  </si>
-  <si>
-    <t>881110</t>
-  </si>
-  <si>
-    <t>881177</t>
-  </si>
-  <si>
-    <t>881132</t>
-  </si>
-  <si>
-    <t>881108</t>
-  </si>
-  <si>
-    <t>881109</t>
-  </si>
-  <si>
-    <t>881140</t>
-  </si>
-  <si>
-    <t>881151</t>
-  </si>
-  <si>
-    <t>881161</t>
-  </si>
-  <si>
-    <t>881160</t>
-  </si>
-  <si>
-    <t>881130</t>
-  </si>
-  <si>
-    <t>881163</t>
-  </si>
-  <si>
-    <t>881114</t>
-  </si>
-  <si>
-    <t>881178</t>
-  </si>
-  <si>
-    <t>881139</t>
-  </si>
-  <si>
-    <t>881115</t>
-  </si>
-  <si>
-    <t>881116</t>
-  </si>
-  <si>
-    <t>881158</t>
-  </si>
-  <si>
-    <t>零售</t>
-  </si>
-  <si>
-    <t>881182</t>
-  </si>
-  <si>
-    <t>美容护理</t>
-  </si>
-  <si>
-    <t>881105</t>
-  </si>
-  <si>
-    <t>煤炭开采加工</t>
-  </si>
-  <si>
-    <t>881159</t>
-  </si>
-  <si>
-    <t>贸易</t>
-  </si>
-  <si>
-    <t>881103</t>
-  </si>
-  <si>
-    <t>农产品加工</t>
-  </si>
-  <si>
-    <t>881104</t>
-  </si>
-  <si>
-    <t>农业服务</t>
-  </si>
-  <si>
-    <t>881128</t>
-  </si>
-  <si>
-    <t>汽车服务</t>
-  </si>
-  <si>
-    <t>881126</t>
-  </si>
-  <si>
-    <t>汽车零部件</t>
-  </si>
-  <si>
-    <t>881125</t>
-  </si>
-  <si>
-    <t>汽车整车</t>
-  </si>
-  <si>
-    <t>881123</t>
-  </si>
-  <si>
-    <t>其他电子</t>
-  </si>
-  <si>
-    <t>881179</t>
-  </si>
-  <si>
-    <t>其他社会服务</t>
-  </si>
-  <si>
-    <t>881146</t>
-  </si>
-  <si>
-    <t>燃气</t>
-  </si>
-  <si>
-    <t>881134</t>
-  </si>
-  <si>
-    <t>食品加工制造</t>
-  </si>
-  <si>
-    <t>881142</t>
-  </si>
-  <si>
-    <t>生物制品</t>
-  </si>
-  <si>
-    <t>881180</t>
-  </si>
-  <si>
-    <t>石油加工贸易</t>
-  </si>
-  <si>
-    <t>881162</t>
-  </si>
-  <si>
-    <t>通信服务</t>
-  </si>
-  <si>
-    <t>881129</t>
-  </si>
-  <si>
-    <t>通信设备</t>
-  </si>
-  <si>
-    <t>881117</t>
-  </si>
-  <si>
-    <t>通用设备</t>
-  </si>
-  <si>
-    <t>881152</t>
-  </si>
-  <si>
-    <t>物流</t>
-  </si>
-  <si>
-    <t>881124</t>
-  </si>
-  <si>
-    <t>消费电子</t>
-  </si>
-  <si>
-    <t>881173</t>
-  </si>
-  <si>
-    <t>小家电</t>
-  </si>
-  <si>
-    <t>881170</t>
-  </si>
-  <si>
-    <t>小金属</t>
-  </si>
-  <si>
-    <t>881175</t>
-  </si>
-  <si>
-    <t>医疗服务</t>
-  </si>
-  <si>
-    <t>881144</t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t>881133</t>
-  </si>
-  <si>
-    <t>饮料制造</t>
-  </si>
-  <si>
-    <t>881107</t>
-  </si>
-  <si>
-    <t>油气开采及服务</t>
-  </si>
-  <si>
-    <t>881119</t>
-  </si>
-  <si>
-    <t>仪器仪表</t>
-  </si>
-  <si>
-    <t>881155</t>
-  </si>
-  <si>
-    <t>银行</t>
-  </si>
-  <si>
-    <t>881143</t>
-  </si>
-  <si>
-    <t>医药商业</t>
-  </si>
-  <si>
-    <t>881102</t>
-  </si>
-  <si>
-    <t>养殖业</t>
-  </si>
-  <si>
-    <t>881171</t>
-  </si>
-  <si>
-    <t>自动化设备</t>
-  </si>
-  <si>
-    <t>881165</t>
-  </si>
-  <si>
-    <t>综合</t>
-  </si>
-  <si>
-    <t>881157</t>
-  </si>
-  <si>
-    <t>证券</t>
-  </si>
-  <si>
-    <t>881141</t>
-  </si>
-  <si>
-    <t>中药</t>
-  </si>
-  <si>
-    <t>881118</t>
-  </si>
-  <si>
-    <t>专用设备</t>
-  </si>
-  <si>
-    <t>881137</t>
-  </si>
-  <si>
-    <t>造纸</t>
-  </si>
-  <si>
-    <t>881101</t>
-  </si>
-  <si>
-    <t>种植业与林业</t>
-  </si>
-  <si>
-    <t>概念</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺行业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>realCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,12 +2225,6 @@
       <sz val="9.8000000000000007"/>
       <color rgb="FF262626"/>
       <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF262626"/>
-      <name val="Courier New"/>
       <family val="3"/>
     </font>
     <font>
@@ -2309,7 +2262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2317,7 +2270,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2600,33 +2556,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C364"/>
+  <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B45" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="12.64453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>720</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2644,8 +2603,8 @@
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>718</v>
+      <c r="C5" s="4">
+        <v>885611</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2655,6 +2614,9 @@
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="4">
+        <v>885423</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
@@ -2663,2852 +2625,3906 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C7" s="4">
+        <v>885525</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>717</v>
+      </c>
+      <c r="C8" s="4">
+        <v>885867</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C9" s="4">
+        <v>885797</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C10" s="4">
+        <v>885932</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C11" s="4">
+        <v>885790</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C12" s="4">
+        <v>885829</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C13" s="4">
+        <v>885825</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C14" s="4">
+        <v>885623</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C15" s="4">
+        <v>885789</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="4">
+        <v>885620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="4">
+        <v>885729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="4">
+        <v>885640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="4">
+        <v>885835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="4">
+        <v>885832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="4">
+        <v>885886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="4">
+        <v>885761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="4">
+        <v>885831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="4">
+        <v>885816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="4">
+        <v>885662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="4">
+        <v>885461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="4">
+        <v>885935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="4">
+        <v>885413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="4">
+        <v>885855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="4">
+        <v>885921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="4">
+        <v>885810</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="4">
+        <v>885566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="4">
+        <v>885904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C34" s="4">
+        <v>885893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="4">
+        <v>885452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="4">
+        <v>885710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="4">
+        <v>885737</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="4">
+        <v>885420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="4">
+        <v>885908</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="4">
+        <v>885692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="4">
+        <v>885819</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="4">
+        <v>885944</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="4">
+        <v>885846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="4">
+        <v>885787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="4">
+        <v>885943</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="4">
+        <v>885540</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="4">
+        <v>885861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="4">
+        <v>885856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+      <c r="C49" s="4">
+        <v>885873</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+      <c r="C50" s="4">
+        <v>885641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+      <c r="C51" s="4">
+        <v>885805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="C52" s="4">
+        <v>885551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="C53" s="4">
+        <v>885617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="4">
+        <v>885889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+      <c r="C55" s="4">
+        <v>885786</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="C56" s="4">
+        <v>885909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="C57" s="4">
+        <v>885427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
+      <c r="C58" s="4">
+        <v>885562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="C59" s="4">
+        <v>885924</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+      <c r="C60" s="4">
+        <v>885619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
+      <c r="C61" s="4">
+        <v>885818</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
+      <c r="C62" s="4">
+        <v>885783</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
+      <c r="C63" s="4">
+        <v>885930</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
+      <c r="C64" s="4">
+        <v>885657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="C65" s="4">
+        <v>885739</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
+      <c r="C66" s="4">
+        <v>885734</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
+      <c r="C67" s="4">
+        <v>885531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
+      <c r="C68" s="4">
+        <v>885864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
+      <c r="C69" s="4">
+        <v>885410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+      <c r="C70" s="4">
+        <v>885844</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
+      <c r="C71" s="4">
+        <v>885568</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="C72" s="4">
+        <v>885700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
+      <c r="C73" s="4">
+        <v>885865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+      <c r="C74" s="4">
+        <v>885747</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="C75" s="4">
+        <v>885426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="C76" s="4">
+        <v>885894</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
+      <c r="C77" s="4">
+        <v>885939</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+      <c r="C78" s="4">
+        <v>885884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+      <c r="C79" s="4">
+        <v>885795</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
+      <c r="C80" s="4">
+        <v>885733</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
+      <c r="C81" s="4">
+        <v>885701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
+      <c r="C82" s="4">
+        <v>885571</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
+      <c r="C83" s="4">
+        <v>885849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
+      <c r="C84" s="4">
+        <v>885827</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
+      <c r="C85" s="4">
+        <v>885917</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
+      <c r="C86" s="4">
+        <v>885906</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
+      <c r="C87" s="4">
+        <v>885647</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
+      <c r="C88" s="4">
+        <v>885456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
+      <c r="C89" s="4">
+        <v>885765</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
+      <c r="C90" s="4">
+        <v>885923</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
+      <c r="C91" s="4">
+        <v>885938</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
+      <c r="C92" s="4">
+        <v>885530</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1" t="s">
+      <c r="C93" s="4">
+        <v>885903</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
+      <c r="C94" s="4">
+        <v>885806</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1" t="s">
+      <c r="C95" s="4">
+        <v>885843</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
+      <c r="C96" s="4">
+        <v>885834</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
+      <c r="C97" s="4">
+        <v>885520</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
+      <c r="C98" s="4">
+        <v>885767</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1" t="s">
+      <c r="C99" s="4">
+        <v>885675</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1" t="s">
+      <c r="C100" s="4">
+        <v>885543</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1" t="s">
+      <c r="C101" s="4">
+        <v>885563</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
+      <c r="C102" s="4">
+        <v>885433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
+      <c r="C103" s="4">
+        <v>885560</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
+      <c r="C104" s="4">
+        <v>885514</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
+      <c r="C105" s="4">
+        <v>885890</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
+      <c r="C106" s="4">
+        <v>885517</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
+      <c r="C107" s="4">
+        <v>885578</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
+      <c r="C108" s="4">
+        <v>885703</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
+      <c r="C109" s="4">
+        <v>885743</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
+      <c r="C110" s="4">
+        <v>885587</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
+      <c r="C111" s="4">
+        <v>885907</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
+      <c r="C112" s="4">
+        <v>885901</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
+      <c r="C113" s="4">
+        <v>885748</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
+      <c r="C114" s="4">
+        <v>885802</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
+      <c r="C115" s="4">
+        <v>885880</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
+      <c r="C116" s="4">
+        <v>885918</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
+      <c r="C117" s="4">
+        <v>885642</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1" t="s">
+      <c r="C118" s="4">
+        <v>885854</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
+      <c r="C119" s="4">
+        <v>885502</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
+      <c r="C120" s="4">
+        <v>885730</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
+      <c r="C121" s="4">
+        <v>885863</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
+      <c r="C122" s="4">
+        <v>885879</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
+      <c r="C123" s="4">
+        <v>885936</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
+      <c r="C124" s="4">
+        <v>885505</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1" t="s">
+      <c r="C125" s="4">
+        <v>885749</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1" t="s">
+      <c r="C126" s="4">
+        <v>885398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1" t="s">
+      <c r="C127" s="4">
+        <v>885914</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
+      <c r="C128" s="4">
+        <v>885898</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1" t="s">
+      <c r="C129" s="4">
+        <v>885875</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1" t="s">
+      <c r="C130" s="4">
+        <v>885490</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1" t="s">
+      <c r="C131" s="4">
+        <v>885745</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1" t="s">
+      <c r="C132" s="4">
+        <v>885928</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1" t="s">
+      <c r="C133" s="4">
+        <v>885933</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1" t="s">
+      <c r="C134" s="4">
+        <v>885629</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1" t="s">
+      <c r="C135" s="4">
+        <v>885706</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1" t="s">
+      <c r="C136" s="4">
+        <v>885812</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1" t="s">
+      <c r="C137" s="4">
+        <v>885738</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1" t="s">
+      <c r="C138" s="4">
+        <v>885937</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1" t="s">
+      <c r="C139" s="4">
+        <v>885780</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
+      <c r="C140" s="4">
+        <v>885910</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1" t="s">
+      <c r="C141" s="4">
+        <v>885376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
+      <c r="C142" s="4">
+        <v>885555</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1" t="s">
+      <c r="C143" s="4">
+        <v>885690</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
+      <c r="C144" s="4">
+        <v>885902</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1" t="s">
+      <c r="C145" s="4">
+        <v>885545</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1" t="s">
+      <c r="C146" s="4">
+        <v>885945</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1" t="s">
+      <c r="C147" s="4">
+        <v>885570</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
+      <c r="C148" s="4">
+        <v>885852</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1" t="s">
+      <c r="C149" s="4">
+        <v>885508</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
+      <c r="C150" s="4">
+        <v>885757</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
+      <c r="C151" s="4">
+        <v>885633</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
+      <c r="C152" s="4">
+        <v>885775</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1" t="s">
+      <c r="C153" s="4">
+        <v>885798</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1" t="s">
+      <c r="C154" s="4">
+        <v>885728</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1" t="s">
+      <c r="C155" s="4">
+        <v>885839</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1" t="s">
+      <c r="C156" s="4">
+        <v>885759</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1" t="s">
+      <c r="C157" s="4">
+        <v>885338</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1" t="s">
+      <c r="C158" s="4">
+        <v>885809</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1" t="s">
+      <c r="C159" s="4">
+        <v>885462</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1" t="s">
+      <c r="C160" s="4">
+        <v>885792</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
+      <c r="C161" s="4">
+        <v>885493</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1" t="s">
+      <c r="C162" s="4">
+        <v>885472</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1" t="s">
+      <c r="C163" s="4">
+        <v>885694</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1" t="s">
+      <c r="C164" s="4">
+        <v>885845</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1" t="s">
+      <c r="C165" s="4">
+        <v>885403</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1" t="s">
+      <c r="C166" s="4">
+        <v>885911</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1" t="s">
+      <c r="C167" s="4">
+        <v>885781</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1" t="s">
+      <c r="C168" s="4">
+        <v>885355</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1" t="s">
+      <c r="C169" s="4">
+        <v>885406</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1" t="s">
+      <c r="C170" s="4">
+        <v>885895</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C171" s="4">
+        <v>885895</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C172" s="4">
+        <v>885457</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C173" s="4">
+        <v>885572</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C174" s="4">
+        <v>885782</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C175" s="4">
+        <v>885942</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C176" s="4">
+        <v>885887</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C177" s="4">
+        <v>885866</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C178" s="4">
+        <v>885820</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C179" s="4">
+        <v>885842</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C180" s="4">
+        <v>885796</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C181" s="4">
+        <v>885699</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C182" s="4">
+        <v>885697</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C183" s="4">
+        <v>885652</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C184" s="4">
+        <v>885871</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C185" s="4">
+        <v>885650</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C186" s="4">
+        <v>885919</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C187" s="4">
+        <v>885428</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C188" s="4">
+        <v>885425</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C189" s="4">
+        <v>885779</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C190" s="4">
+        <v>885750</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C191" s="4">
+        <v>885467</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C192" s="4">
+        <v>885487</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C193" s="4">
+        <v>885430</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C194" s="4">
+        <v>885615</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C195" s="4">
+        <v>885916</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C196" s="4">
+        <v>885500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C197" s="4">
+        <v>885439</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C198" s="4">
+        <v>885788</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C199" s="4">
+        <v>885876</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C200" s="4">
+        <v>885603</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C201" s="4">
+        <v>885753</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C202" s="4">
+        <v>885925</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C203" s="4">
+        <v>885574</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C204" s="4">
+        <v>885418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C205" s="4">
+        <v>885940</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C206" s="4">
+        <v>885312</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C207" s="4">
+        <v>885564</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C208" s="4">
+        <v>885736</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C209" s="4">
+        <v>885768</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C210" s="4">
+        <v>885412</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C211" s="4">
+        <v>885774</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C212" s="4">
+        <v>885868</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C213" s="4">
+        <v>885915</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C214" s="4">
+        <v>885754</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C215" s="4">
+        <v>885744</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C216" s="4">
+        <v>885705</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C217" s="4">
+        <v>885882</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C218" s="4">
+        <v>885800</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C219" s="4">
+        <v>885552</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C220" s="4">
+        <v>885785</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C221" s="4">
+        <v>885769</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C222" s="4">
+        <v>885544</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C223" s="4">
+        <v>885598</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C224" s="4">
+        <v>885345</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C225" s="4">
+        <v>885784</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C226" s="4">
+        <v>885431</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C227" s="4">
+        <v>885756</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C228" s="4">
+        <v>885891</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C229" s="4">
+        <v>885814</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C230" s="4">
+        <v>885459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C231" s="4">
+        <v>885899</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C232" s="4">
+        <v>885284</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C233" s="4">
+        <v>885343</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C234" s="4">
+        <v>885709</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C235" s="4">
+        <v>885926</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C236" s="4">
+        <v>885851</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C237" s="4">
+        <v>885808</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C238" s="4">
+        <v>885522</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C239" s="4">
+        <v>885595</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="C240" s="4">
+        <v>885922</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="C241" s="4">
+        <v>885838</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="C242" s="4">
+        <v>885372</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C243" s="4">
+        <v>885494</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C244" s="4">
+        <v>885333</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C245" s="4">
+        <v>885883</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C246" s="4">
+        <v>885913</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C247" s="4">
+        <v>885539</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C248" s="4">
+        <v>885912</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C249" s="4">
+        <v>885934</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C250" s="4">
+        <v>885521</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C251" s="4">
+        <v>885811</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C252" s="4">
+        <v>885881</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C253" s="4">
+        <v>885362</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C254" s="4">
+        <v>885874</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="1" t="s">
+      <c r="B255" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C255" s="4">
+        <v>885772</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C256" s="4">
+        <v>885661</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="1" t="s">
+      <c r="B257" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C257" s="4">
+        <v>885480</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C258" s="4">
+        <v>885497</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C259" s="4">
+        <v>885860</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C260" s="4">
+        <v>885740</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C261" s="4">
+        <v>885378</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C262" s="4">
+        <v>885454</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1" t="s">
+      <c r="B263" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C263" s="4">
+        <v>885311</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C264" s="4">
+        <v>885478</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C265" s="4">
+        <v>885766</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C266" s="4">
+        <v>885770</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C267" s="4">
+        <v>885402</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C268" s="4">
+        <v>885771</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="1" t="s">
+      <c r="B269" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C269" s="4">
+        <v>885941</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C270" s="4">
+        <v>885791</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C271" s="4">
+        <v>885586</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C272" s="4">
+        <v>885591</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C273" s="4">
+        <v>885897</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C274" s="4">
+        <v>885741</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="1" t="s">
+      <c r="B275" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C275" s="4">
+        <v>885929</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="1" t="s">
+      <c r="B276" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C276" s="4">
+        <v>885877</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="1" t="s">
+      <c r="B277" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C277" s="4">
+        <v>885905</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C278" s="4">
+        <v>885573</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1" t="s">
+      <c r="B279" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C279" s="4">
+        <v>885663</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C280" s="4">
+        <v>885742</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1" t="s">
+      <c r="B281" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C281" s="4">
+        <v>885760</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1" t="s">
+      <c r="B282" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C282" s="4">
+        <v>885580</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1" t="s">
+      <c r="B283" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C283" s="4">
+        <v>885758</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C284" s="4">
+        <v>885764</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1" t="s">
+      <c r="B285" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C285" s="4">
+        <v>885537</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C286" s="4">
+        <v>885556</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>595</v>
+      <c r="C288" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C289" t="s">
-        <v>719</v>
+      <c r="C289" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>599</v>
+      <c r="C290" s="1" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B291" s="1" t="s">
-        <v>601</v>
+      <c r="C291" s="1" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>603</v>
+      <c r="C292" s="1" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>605</v>
+      <c r="C293" s="1" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>607</v>
+      <c r="C294" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>609</v>
+      <c r="C295" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>611</v>
+        <v>40</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>613</v>
+        <v>41</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="1" t="s">
+      <c r="B307" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="1" t="s">
+      <c r="B308" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="1" t="s">
+      <c r="B309" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="1" t="s">
+      <c r="B310" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="1" t="s">
+      <c r="B311" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="1" t="s">
+      <c r="B312" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="1" t="s">
+      <c r="B313" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="1" t="s">
+      <c r="B314" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="1" t="s">
+      <c r="B315" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1" t="s">
+      <c r="B316" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1" t="s">
+      <c r="B317" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1" t="s">
+      <c r="B318" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1" t="s">
+      <c r="B319" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1" t="s">
+      <c r="B320" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1" t="s">
+      <c r="B321" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="1" t="s">
+      <c r="B322" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="1" t="s">
+      <c r="B323" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="1" t="s">
+      <c r="B324" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="1" t="s">
+      <c r="B325" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="1" t="s">
+      <c r="C326" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1" t="s">
+      <c r="B327" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="1" t="s">
+      <c r="C327" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C328" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="1" t="s">
+      <c r="B329" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="C329" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="1" t="s">
+      <c r="B330" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C330" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="1" t="s">
+      <c r="B331" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="1" t="s">
+      <c r="B332" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="1" t="s">
+      <c r="B333" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="1" t="s">
+      <c r="B334" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="1" t="s">
+      <c r="B335" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="C335" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="1" t="s">
+      <c r="B336" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="1" t="s">
+      <c r="B337" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="1" t="s">
+      <c r="B338" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="1" t="s">
+      <c r="B340" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="1" t="s">
+      <c r="B341" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="1" t="s">
+      <c r="B342" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="1" t="s">
+      <c r="B343" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="1" t="s">
+      <c r="B344" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C344" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C345" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="C346" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="1" t="s">
+      <c r="B347" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="1" t="s">
+      <c r="B348" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="1" t="s">
+      <c r="B349" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="1" t="s">
+      <c r="B350" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="1" t="s">
+      <c r="B351" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="1" t="s">
+      <c r="B352" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="C352" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="1" t="s">
+      <c r="B353" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="C353" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="1" t="s">
+      <c r="B354" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="1" t="s">
+      <c r="B355" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="C355" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="1" t="s">
+      <c r="B356" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="C356" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="1" t="s">
+      <c r="B357" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="C357" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="1" t="s">
+      <c r="B358" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="C358" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" s="1" t="s">
+      <c r="B359" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="C359" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" s="1" t="s">
+      <c r="B360" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="C360" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="1" t="s">
+      <c r="B361" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="C361" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="1" t="s">
+      <c r="B362" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B362" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>717</v>
+      <c r="C362" s="1" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/excel/IndustryResource.xlsx
+++ b/src/main/resources/excel/IndustryResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D14D9B2-6142-4F65-A42A-3AA55F1626A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7DAB5E-2A68-49D6-8112-48DBF82C9F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="746">
   <si>
     <t>阿里巴巴概念</t>
   </si>
@@ -238,11 +238,11 @@
   </si>
   <si>
     <t>概念板块代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>301558</t>
@@ -368,21 +368,6 @@
     <t>308803</t>
   </si>
   <si>
-    <r>
-      <t>EDR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF262626"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概念</t>
-    </r>
-  </si>
-  <si>
     <t>300891</t>
   </si>
   <si>
@@ -2184,15 +2169,15 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标普道琼斯A股</t>
@@ -2201,31 +2186,102 @@
     <t>国家大基金持股</t>
   </si>
   <si>
+    <t>realCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器</t>
+  </si>
+  <si>
+    <t>冬奥会</t>
+  </si>
+  <si>
+    <t>电子纸</t>
+  </si>
+  <si>
+    <t>EDR概念</t>
+  </si>
+  <si>
+    <t>年报预增</t>
+  </si>
+  <si>
+    <t>柔性直流输电</t>
+  </si>
+  <si>
+    <t>虚拟数字人</t>
+  </si>
+  <si>
+    <t>幽门螺杆菌概念</t>
+  </si>
+  <si>
+    <t>预制菜</t>
+  </si>
+  <si>
+    <t>301016</t>
+  </si>
+  <si>
+    <t>301544</t>
+  </si>
+  <si>
+    <t>301135</t>
+  </si>
+  <si>
+    <t>308458</t>
+  </si>
+  <si>
+    <t>308810</t>
+  </si>
+  <si>
     <t>301531</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>realCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>308794</t>
+  </si>
+  <si>
+    <t>308818</t>
+  </si>
+  <si>
+    <t>308814</t>
+  </si>
+  <si>
+    <t>881121</t>
+  </si>
+  <si>
+    <t>半导体及元件</t>
+  </si>
+  <si>
+    <t>885742</t>
+  </si>
+  <si>
+    <t>885760</t>
+  </si>
+  <si>
+    <t>885580</t>
+  </si>
+  <si>
+    <t>885758</t>
+  </si>
+  <si>
+    <t>885764</t>
+  </si>
+  <si>
+    <t>885537</t>
+  </si>
+  <si>
+    <t>885556</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF262626"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2262,15 +2318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2556,39 +2609,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C362"/>
+  <dimension ref="A1:C373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="C298" sqref="C298:C373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.64453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -2596,3935 +2649,4040 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>885611</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>885423</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>885525</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C8" s="3">
         <v>885867</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>885797</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>885932</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>885790</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>885829</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>885825</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>885623</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>885789</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>885620</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>885729</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>885640</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>885835</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>885832</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>885886</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>885761</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>885831</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>885816</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>885662</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>885461</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>885935</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C28" s="3">
+        <v>885946</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="3">
         <v>885413</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="3">
         <v>885855</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="3">
         <v>885921</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C32" s="3">
         <v>885810</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C33" s="3">
         <v>885566</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C34" s="3">
         <v>885904</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B35" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C35" s="3">
         <v>885893</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C36" s="3">
         <v>885452</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C37" s="3">
         <v>885710</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C38" s="3">
         <v>885737</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C39" s="3">
         <v>885420</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C40" s="3">
         <v>885908</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C41" s="3">
         <v>885692</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C42" s="3">
         <v>885819</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C43" s="3">
+        <v>885949</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C44" s="3">
         <v>885944</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C45" s="3">
         <v>885846</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C46" s="3">
         <v>885787</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C47" s="3">
+        <v>885953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B48" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C48" s="3">
+        <v>885943</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="4">
-        <v>885943</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="3">
+        <v>885540</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="4">
-        <v>885540</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="3">
+        <v>885861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="4">
-        <v>885861</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C51" s="3">
+        <v>885856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="4">
-        <v>885856</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C52" s="3">
+        <v>885873</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="4">
-        <v>885873</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C53" s="3">
+        <v>885641</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="4">
-        <v>885641</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C54" s="3">
+        <v>885805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="4">
-        <v>885805</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C55" s="3">
+        <v>885551</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="4">
-        <v>885551</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C56" s="3">
+        <v>885617</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="4">
-        <v>885617</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C57" s="3">
+        <v>885889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="4">
-        <v>885889</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C58" s="3">
+        <v>885786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="4">
-        <v>885786</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C59" s="3">
+        <v>885909</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="4">
-        <v>885909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C60" s="3">
+        <v>885427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="4">
-        <v>885427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C61" s="3">
+        <v>885562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="4">
-        <v>885562</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C62" s="3">
+        <v>885924</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="4">
-        <v>885924</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C63" s="3">
+        <v>885619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="4">
-        <v>885619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C64" s="3">
+        <v>885818</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="4">
-        <v>885818</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C65" s="3">
+        <v>885783</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="4">
-        <v>885783</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C66" s="3">
+        <v>885930</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="4">
-        <v>885930</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C67" s="3">
+        <v>885657</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C64" s="4">
-        <v>885657</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C68" s="3">
+        <v>885739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="4">
-        <v>885739</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C69" s="3">
+        <v>885734</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="4">
-        <v>885734</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C70" s="3">
+        <v>885531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="4">
-        <v>885531</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C71" s="3">
+        <v>885864</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C68" s="4">
-        <v>885864</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C72" s="3">
+        <v>885410</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="4">
-        <v>885410</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C73" s="3">
+        <v>885844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="4">
-        <v>885844</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C74" s="3">
+        <v>885568</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="4">
-        <v>885568</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C75" s="3">
+        <v>885700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="4">
-        <v>885700</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C76" s="3">
+        <v>885865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="4">
-        <v>885865</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C77" s="3">
+        <v>885747</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C74" s="4">
-        <v>885747</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C78" s="3">
+        <v>885426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C75" s="4">
-        <v>885426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C79" s="3">
+        <v>885894</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C76" s="4">
-        <v>885894</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C80" s="3">
+        <v>885939</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C77" s="4">
-        <v>885939</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C81" s="3">
+        <v>885884</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="4">
-        <v>885884</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C82" s="3">
+        <v>885795</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="4">
-        <v>885795</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C83" s="3">
+        <v>885733</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C80" s="4">
-        <v>885733</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C84" s="3">
+        <v>885701</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C81" s="4">
-        <v>885701</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C85" s="3">
+        <v>885571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C82" s="4">
-        <v>885571</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C86" s="3">
+        <v>885849</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C83" s="4">
-        <v>885849</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C87" s="3">
+        <v>885827</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C84" s="4">
-        <v>885827</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C88" s="3">
+        <v>885917</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="4">
-        <v>885917</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C89" s="3">
+        <v>885906</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="4">
-        <v>885906</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C90" s="3">
+        <v>885647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="4">
-        <v>885647</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C91" s="3">
+        <v>885456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C88" s="4">
-        <v>885456</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C92" s="3">
+        <v>885765</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C89" s="4">
-        <v>885765</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C93" s="3">
+        <v>885923</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C90" s="4">
-        <v>885923</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C94" s="3">
+        <v>885938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C91" s="4">
-        <v>885938</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C95" s="3">
+        <v>885530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C92" s="4">
-        <v>885530</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C96" s="3">
+        <v>885903</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="4">
-        <v>885903</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C97" s="3">
+        <v>885806</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="4">
-        <v>885806</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C98" s="3">
+        <v>885843</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C95" s="4">
-        <v>885843</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C99" s="3">
+        <v>885834</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C96" s="4">
-        <v>885834</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C100" s="3">
+        <v>885520</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C97" s="4">
-        <v>885520</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C101" s="3">
+        <v>885767</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C98" s="4">
-        <v>885767</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C102" s="3">
+        <v>885675</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C99" s="4">
-        <v>885675</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C103" s="3">
+        <v>885543</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C100" s="4">
-        <v>885543</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C104" s="3">
+        <v>885563</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C101" s="4">
-        <v>885563</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C105" s="3">
+        <v>885433</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C102" s="4">
-        <v>885433</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C106" s="3">
+        <v>885560</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C103" s="4">
-        <v>885560</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C107" s="3">
+        <v>885514</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C104" s="4">
-        <v>885514</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C108" s="3">
+        <v>885890</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C105" s="4">
-        <v>885890</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C109" s="3">
+        <v>885517</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C106" s="4">
-        <v>885517</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C110" s="3">
+        <v>885578</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="4">
-        <v>885578</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C111" s="3">
+        <v>885703</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="4">
-        <v>885703</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C112" s="3">
+        <v>885743</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C109" s="4">
-        <v>885743</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C113" s="3">
+        <v>885587</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C110" s="4">
-        <v>885587</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C114" s="3">
+        <v>885907</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="4">
-        <v>885907</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C115" s="3">
+        <v>885901</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C112" s="4">
-        <v>885901</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C116" s="3">
+        <v>885748</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="4">
-        <v>885748</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C117" s="3">
+        <v>885802</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C114" s="4">
-        <v>885802</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C118" s="3">
+        <v>885880</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C115" s="4">
-        <v>885880</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C119" s="3">
+        <v>885918</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C116" s="4">
-        <v>885918</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C120" s="3">
+        <v>885642</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C117" s="4">
-        <v>885642</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C121" s="3">
+        <v>885854</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C118" s="4">
-        <v>885854</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C122" s="3">
+        <v>885502</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C119" s="4">
-        <v>885502</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C123" s="3">
+        <v>885730</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C120" s="4">
-        <v>885730</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C124" s="3">
+        <v>885863</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C121" s="4">
-        <v>885863</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C125" s="3">
+        <v>885879</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C122" s="4">
-        <v>885879</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C126" s="3">
+        <v>885936</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C123" s="4">
-        <v>885936</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C127" s="3">
+        <v>885505</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C124" s="4">
-        <v>885505</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C128" s="3">
+        <v>885749</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C125" s="4">
-        <v>885749</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C129" s="3">
+        <v>885398</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C126" s="4">
-        <v>885398</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C130" s="3">
+        <v>885914</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C127" s="4">
-        <v>885914</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C131" s="3">
+        <v>885898</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C128" s="4">
-        <v>885898</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C132" s="3">
+        <v>885875</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C129" s="4">
-        <v>885875</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C133" s="3">
+        <v>885490</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C130" s="4">
-        <v>885490</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C134" s="3">
+        <v>885745</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C131" s="4">
-        <v>885745</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C135" s="3">
+        <v>885928</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C132" s="4">
-        <v>885928</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C136" s="3">
+        <v>885933</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C137" s="3">
+        <v>885869</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C133" s="4">
-        <v>885933</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C138" s="3">
+        <v>885629</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C134" s="4">
-        <v>885629</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C139" s="3">
+        <v>885706</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C135" s="4">
-        <v>885706</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C140" s="3">
+        <v>885812</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C136" s="4">
-        <v>885812</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C141" s="3">
+        <v>885738</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C137" s="4">
-        <v>885738</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C142" s="3">
+        <v>885937</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C138" s="4">
-        <v>885937</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C143" s="3">
+        <v>885780</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C139" s="4">
-        <v>885780</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C144" s="3">
+        <v>885910</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C140" s="4">
-        <v>885910</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C145" s="3">
+        <v>885376</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C141" s="4">
-        <v>885376</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C146" s="3">
+        <v>885555</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C142" s="4">
-        <v>885555</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C147" s="3">
+        <v>885690</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C143" s="4">
-        <v>885690</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C148" s="3">
+        <v>885902</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C144" s="4">
-        <v>885902</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C149" s="3">
+        <v>885545</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C145" s="4">
-        <v>885545</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C150" s="3">
+        <v>885945</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C146" s="4">
-        <v>885945</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C151" s="3">
+        <v>885570</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C147" s="4">
-        <v>885570</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C152" s="3">
+        <v>885852</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C148" s="4">
-        <v>885852</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C153" s="3">
+        <v>885508</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C149" s="4">
-        <v>885508</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C154" s="3">
+        <v>885757</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C150" s="4">
-        <v>885757</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C155" s="3">
+        <v>885633</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C151" s="4">
-        <v>885633</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C156" s="3">
+        <v>885775</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C152" s="4">
-        <v>885775</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C157" s="3">
+        <v>885798</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C153" s="4">
-        <v>885798</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C158" s="3">
+        <v>885728</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C154" s="4">
-        <v>885728</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C159" s="3">
+        <v>885839</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C155" s="4">
-        <v>885839</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C160" s="3">
+        <v>885759</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C156" s="4">
-        <v>885759</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C161" s="3">
+        <v>885338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C157" s="4">
-        <v>885338</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C162" s="3">
+        <v>885809</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C163" s="3">
+        <v>885948</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C158" s="4">
-        <v>885809</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C164" s="3">
+        <v>885462</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C159" s="4">
-        <v>885462</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C165" s="3">
+        <v>885792</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C160" s="4">
-        <v>885792</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C166" s="3">
+        <v>885493</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C161" s="4">
-        <v>885493</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C167" s="3">
+        <v>885472</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C162" s="4">
-        <v>885472</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C168" s="3">
+        <v>885694</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C163" s="4">
-        <v>885694</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C169" s="3">
+        <v>885845</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C164" s="4">
-        <v>885845</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C170" s="3">
+        <v>885403</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C165" s="4">
-        <v>885403</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C171" s="3">
+        <v>885911</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C166" s="4">
-        <v>885911</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C172" s="3">
+        <v>885781</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C167" s="4">
-        <v>885781</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C173" s="3">
+        <v>885355</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C168" s="4">
-        <v>885355</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C174" s="3">
+        <v>885406</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C169" s="4">
-        <v>885406</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C175" s="3">
+        <v>885895</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C170" s="4">
-        <v>885895</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B171" s="1" t="s">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C171" s="4">
-        <v>885895</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C177" s="3">
+        <v>885457</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C172" s="4">
-        <v>885457</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C178" s="3">
+        <v>885572</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C173" s="4">
-        <v>885572</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C179" s="3">
+        <v>885782</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A180" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C174" s="4">
-        <v>885782</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C180" s="3">
+        <v>885942</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C175" s="4">
-        <v>885942</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C181" s="3">
+        <v>885887</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A182" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C176" s="4">
-        <v>885887</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C182" s="3">
+        <v>885866</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A183" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C177" s="4">
-        <v>885866</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C183" s="3">
+        <v>885820</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A184" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C178" s="4">
-        <v>885820</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C184" s="3">
+        <v>885842</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A185" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C179" s="4">
-        <v>885842</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C185" s="3">
+        <v>885796</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A186" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C180" s="4">
-        <v>885796</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C186" s="3">
+        <v>885699</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A187" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C181" s="4">
-        <v>885699</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C187" s="3">
+        <v>885697</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A188" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C182" s="4">
-        <v>885697</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C188" s="3">
+        <v>885652</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A189" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C183" s="4">
-        <v>885652</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C189" s="3">
+        <v>885871</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A190" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C184" s="4">
-        <v>885871</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C190" s="3">
+        <v>885650</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A191" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C185" s="4">
-        <v>885650</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C191" s="3">
+        <v>885919</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A192" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C186" s="4">
-        <v>885919</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C192" s="3">
+        <v>885428</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A193" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C187" s="4">
-        <v>885428</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C193" s="3">
+        <v>885425</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A194" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C188" s="4">
-        <v>885425</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C194" s="3">
+        <v>885779</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A195" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C189" s="4">
-        <v>885779</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C195" s="3">
+        <v>885750</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C190" s="4">
-        <v>885750</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C196" s="3">
+        <v>885467</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A197" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C191" s="4">
-        <v>885467</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C197" s="3">
+        <v>885487</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A198" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C192" s="4">
-        <v>885487</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C198" s="3">
+        <v>885430</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A199" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C193" s="4">
-        <v>885430</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C199" s="3">
+        <v>885615</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C194" s="4">
-        <v>885615</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C200" s="3">
+        <v>885916</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C195" s="4">
-        <v>885916</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C201" s="3">
+        <v>885500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A202" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C196" s="4">
-        <v>885500</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C202" s="3">
+        <v>885439</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A203" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C197" s="4">
-        <v>885439</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C203" s="3">
+        <v>885788</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A204" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C198" s="4">
-        <v>885788</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C204" s="3">
+        <v>885876</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A205" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C199" s="4">
-        <v>885876</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C205" s="3">
+        <v>885603</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A206" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C200" s="4">
-        <v>885603</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C206" s="3">
+        <v>885753</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A207" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C201" s="4">
-        <v>885753</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C207" s="3">
+        <v>885925</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A208" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C202" s="4">
-        <v>885925</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C208" s="3">
+        <v>885574</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A209" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C203" s="4">
-        <v>885574</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C209" s="3">
+        <v>885418</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A210" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C204" s="4">
-        <v>885418</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C210" s="3">
+        <v>885940</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A211" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C205" s="4">
-        <v>885940</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C211" s="3">
+        <v>885312</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A212" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C206" s="4">
-        <v>885312</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C212" s="3">
+        <v>885564</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A213" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C207" s="4">
-        <v>885564</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C213" s="3">
+        <v>885736</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A214" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C208" s="4">
-        <v>885736</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C214" s="3">
+        <v>885768</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A215" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C209" s="4">
-        <v>885768</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C215" s="3">
+        <v>885412</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A216" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C210" s="4">
-        <v>885412</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C216" s="3">
+        <v>885774</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A217" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C211" s="4">
-        <v>885774</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C217" s="3">
+        <v>885868</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A218" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C212" s="4">
-        <v>885868</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C218" s="3">
+        <v>885915</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A219" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C213" s="4">
-        <v>885915</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C219" s="3">
+        <v>885754</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A220" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C214" s="4">
-        <v>885754</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C220" s="3">
+        <v>885744</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A221" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C215" s="4">
-        <v>885744</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C221" s="3">
+        <v>885705</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A222" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C216" s="4">
-        <v>885705</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C222" s="3">
+        <v>885882</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A223" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C217" s="4">
-        <v>885882</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C223" s="3">
+        <v>885800</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A224" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C218" s="4">
-        <v>885800</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C224" s="3">
+        <v>885552</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A225" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C219" s="4">
-        <v>885552</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C225" s="3">
+        <v>885785</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A226" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C220" s="4">
-        <v>885785</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C226" s="3">
+        <v>885769</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A227" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C221" s="4">
-        <v>885769</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C227" s="3">
+        <v>885544</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A228" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C222" s="4">
-        <v>885544</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C228" s="3">
+        <v>885598</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A229" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C223" s="4">
-        <v>885598</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C229" s="3">
+        <v>885345</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C224" s="4">
-        <v>885345</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C230" s="3">
+        <v>885784</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A231" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C225" s="4">
-        <v>885784</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C231" s="3">
+        <v>885431</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A232" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C226" s="4">
-        <v>885431</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C232" s="3">
+        <v>885756</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A233" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C227" s="4">
-        <v>885756</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C233" s="3">
+        <v>885891</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A234" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C228" s="4">
-        <v>885891</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C234" s="3">
+        <v>885814</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A235" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C229" s="4">
-        <v>885814</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C235" s="3">
+        <v>885459</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A236" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C230" s="4">
-        <v>885459</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C236" s="3">
+        <v>885899</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A237" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C231" s="4">
-        <v>885899</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C237" s="3">
+        <v>885284</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A238" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C232" s="4">
-        <v>885284</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C238" s="3">
+        <v>885343</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A239" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C239" s="3">
+        <v>885950</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A240" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C233" s="4">
-        <v>885343</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C240" s="3">
+        <v>885709</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A241" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C234" s="4">
-        <v>885709</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C241" s="3">
+        <v>885926</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A242" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C235" s="4">
-        <v>885926</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C242" s="3">
+        <v>885851</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A243" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C236" s="4">
-        <v>885851</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C243" s="3">
+        <v>885808</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A244" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C237" s="4">
-        <v>885808</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C244" s="3">
+        <v>885522</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A245" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C238" s="4">
-        <v>885522</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="C245" s="3">
+        <v>885595</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A246" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C239" s="4">
-        <v>885595</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="C246" s="3">
+        <v>885922</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A247" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C240" s="4">
-        <v>885922</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="C247" s="3">
+        <v>885838</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C241" s="4">
-        <v>885838</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C248" s="3">
+        <v>885372</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A249" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C242" s="4">
-        <v>885372</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C249" s="3">
+        <v>885494</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A250" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C243" s="4">
-        <v>885494</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C250" s="3">
+        <v>885333</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A251" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C244" s="4">
-        <v>885333</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C251" s="3">
+        <v>885883</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C245" s="4">
-        <v>885883</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C252" s="3">
+        <v>885913</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A253" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C246" s="4">
-        <v>885913</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C253" s="3">
+        <v>885539</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A254" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C247" s="4">
-        <v>885539</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C254" s="3">
+        <v>885912</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A255" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C255" s="3">
+        <v>885952</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A256" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C248" s="4">
-        <v>885912</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C256" s="3">
+        <v>885934</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A257" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C249" s="4">
-        <v>885934</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="1" t="s">
+      <c r="B257" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C257" s="3">
+        <v>885521</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A258" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C250" s="4">
-        <v>885521</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C258" s="3">
+        <v>885811</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A259" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C251" s="4">
-        <v>885811</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C259" s="3">
+        <v>885881</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A260" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C252" s="4">
-        <v>885881</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C260" s="3">
+        <v>885362</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A261" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C253" s="4">
-        <v>885362</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C261" s="3">
+        <v>885874</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A262" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C254" s="4">
-        <v>885874</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C262" s="3">
+        <v>885772</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A263" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C263" s="3">
+        <v>885951</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A264" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C255" s="4">
-        <v>885772</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C264" s="3">
+        <v>885661</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A265" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C256" s="4">
-        <v>885661</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C265" s="3">
+        <v>885480</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A266" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C257" s="4">
-        <v>885480</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C266" s="3">
+        <v>885497</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A267" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C258" s="4">
-        <v>885497</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C267" s="3">
+        <v>885860</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A268" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C259" s="4">
-        <v>885860</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C268" s="3">
+        <v>885740</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A269" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C260" s="4">
-        <v>885740</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="1" t="s">
+      <c r="B269" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C269" s="3">
+        <v>885378</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A270" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C261" s="4">
-        <v>885378</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C270" s="3">
+        <v>885454</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A271" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C262" s="4">
-        <v>885454</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C271" s="3">
+        <v>885311</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A272" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C263" s="4">
-        <v>885311</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C272" s="3">
+        <v>885478</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A273" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C264" s="4">
-        <v>885478</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C273" s="3">
+        <v>885766</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A274" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C265" s="4">
-        <v>885766</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C274" s="3">
+        <v>885770</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A275" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C266" s="4">
-        <v>885770</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="1" t="s">
+      <c r="B275" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C275" s="3">
+        <v>885402</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A276" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C267" s="4">
-        <v>885402</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="1" t="s">
+      <c r="B276" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C276" s="3">
+        <v>885771</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A277" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C268" s="4">
-        <v>885771</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="1" t="s">
+      <c r="B277" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C277" s="3">
+        <v>885941</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A278" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C269" s="4">
-        <v>885941</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C278" s="3">
+        <v>885791</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A279" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C270" s="4">
-        <v>885791</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="1" t="s">
+      <c r="B279" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C279" s="3">
+        <v>885586</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A280" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C271" s="4">
-        <v>885586</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C280" s="3">
+        <v>885591</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A281" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C272" s="4">
-        <v>885591</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="1" t="s">
+      <c r="B281" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C281" s="3">
+        <v>885897</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A282" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C273" s="4">
-        <v>885897</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="1" t="s">
+      <c r="B282" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C282" s="3">
+        <v>885741</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A283" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="4">
-        <v>885741</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="1" t="s">
+      <c r="B283" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C283" s="3">
+        <v>885929</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A284" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C275" s="4">
-        <v>885929</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C284" s="3">
+        <v>885877</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A285" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C276" s="4">
-        <v>885877</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="1" t="s">
+      <c r="B285" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C285" s="3">
+        <v>885905</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A286" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C277" s="4">
-        <v>885905</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C286" s="3">
+        <v>885573</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A287" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C278" s="4">
-        <v>885573</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="1" t="s">
+      <c r="B287" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C287" s="3">
+        <v>885663</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A288" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C279" s="4">
-        <v>885663</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C288" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A289" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C280" s="4">
-        <v>885742</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="1" t="s">
+      <c r="B289" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C289" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A290" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C281" s="4">
-        <v>885760</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="1" t="s">
+      <c r="B290" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C290" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A291" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C282" s="4">
-        <v>885580</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="1" t="s">
+      <c r="B291" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C291" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A292" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C283" s="4">
-        <v>885758</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="1" t="s">
+      <c r="B292" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C292" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A293" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C284" s="4">
-        <v>885764</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="1" t="s">
+      <c r="B293" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C293" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A294" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C285" s="4">
-        <v>885537</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="1" t="s">
+      <c r="B294" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C294" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A298" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A299" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C286" s="4">
-        <v>885556</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="1" t="s">
+      <c r="B299" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="C299" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A300" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="1" t="s">
+      <c r="B300" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="C300" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A301" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="1" t="s">
+      <c r="B301" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C301" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A302" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="1" t="s">
+      <c r="B302" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C302" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A303" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C291" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C303" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A304" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C292" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="C304" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A305" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C293" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="1" t="s">
+      <c r="B305" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C305" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A306" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="1" t="s">
+      <c r="B306" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="C306" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A307" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C295" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="1" t="s">
+      <c r="B307" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A308" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C296" s="1" t="s">
+      <c r="B308" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="1" t="s">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A309" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C297" s="1" t="s">
+      <c r="B309" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="1" t="s">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A310" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C298" s="1" t="s">
+      <c r="B310" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="1" t="s">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A311" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C299" s="1" t="s">
+      <c r="B311" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="1" t="s">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A312" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C300" s="1" t="s">
+      <c r="B312" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="1" t="s">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A313" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C301" s="1" t="s">
+      <c r="B313" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="1" t="s">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A314" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C302" s="1" t="s">
+      <c r="B314" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="1" t="s">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A315" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C303" s="1" t="s">
+      <c r="B315" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="1" t="s">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A316" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C304" s="1" t="s">
+      <c r="B316" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="1" t="s">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A317" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C305" s="1" t="s">
+      <c r="B317" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="1" t="s">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A318" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C306" s="1" t="s">
+      <c r="B318" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="1" t="s">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A319" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C307" s="1" t="s">
+      <c r="B319" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="1" t="s">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A320" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C308" s="1" t="s">
+      <c r="B320" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="1" t="s">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A321" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C309" s="1" t="s">
+      <c r="B321" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
-      <c r="A310" s="1" t="s">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A322" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C310" s="1" t="s">
+      <c r="B322" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
-      <c r="A311" s="1" t="s">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A323" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C311" s="1" t="s">
+      <c r="B323" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
-      <c r="A312" s="1" t="s">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A324" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C312" s="1" t="s">
+      <c r="B324" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
-      <c r="A313" s="1" t="s">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A325" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C313" s="1" t="s">
+      <c r="B325" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="1" t="s">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A326" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C314" s="1" t="s">
+      <c r="B326" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="1" t="s">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A327" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C315" s="1" t="s">
+      <c r="B327" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="1" t="s">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A328" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C316" s="1" t="s">
+      <c r="B328" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="1" t="s">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A329" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C317" s="1" t="s">
+      <c r="B329" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
-      <c r="A318" s="1" t="s">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A330" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C318" s="1" t="s">
+      <c r="B330" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
-      <c r="A319" s="1" t="s">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A331" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C319" s="1" t="s">
+      <c r="B331" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
-      <c r="A320" s="1" t="s">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A332" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C320" s="1" t="s">
+      <c r="B332" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="1" t="s">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A333" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C321" s="1" t="s">
+      <c r="B333" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
-      <c r="A322" s="1" t="s">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A334" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C322" s="1" t="s">
+      <c r="B334" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
-      <c r="A323" s="1" t="s">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A335" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C323" s="1" t="s">
+      <c r="B335" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="1" t="s">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A336" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C324" s="1" t="s">
+      <c r="B336" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
-      <c r="A325" s="1" t="s">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A337" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C325" s="1" t="s">
+      <c r="B337" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B326" s="1" t="s">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A338" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="A327" s="1" t="s">
+      <c r="B338" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="C338" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A339" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C327" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C339" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A340" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C328" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="1" t="s">
+      <c r="B340" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="C340" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A341" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="1" t="s">
+      <c r="B341" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C341" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A342" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C330" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331" s="1" t="s">
+      <c r="B342" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C342" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A343" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="1" t="s">
+      <c r="B343" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="C343" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A344" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C332" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="1" t="s">
+      <c r="B344" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C344" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A345" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C333" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C345" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A346" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C334" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="C346" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A347" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="1" t="s">
+      <c r="B347" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C347" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A348" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="1" t="s">
+      <c r="B348" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C348" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A349" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="1" t="s">
+      <c r="B349" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C349" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A350" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="1" t="s">
+      <c r="B350" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C350" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A351" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="1" t="s">
+      <c r="B351" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C351" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A352" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C340" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="1" t="s">
+      <c r="B352" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C352" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A353" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C341" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="1" t="s">
+      <c r="B353" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C353" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A354" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="1" t="s">
+      <c r="B354" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C354" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A355" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="1" t="s">
+      <c r="B355" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C355" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A356" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C344" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="1" t="s">
+      <c r="B356" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C356" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A357" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="1" t="s">
+      <c r="B357" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="C357" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A358" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C346" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="1" t="s">
+      <c r="B358" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C358" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A359" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="1" t="s">
+      <c r="B359" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C359" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A360" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="1" t="s">
+      <c r="B360" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C360" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A361" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="1" t="s">
+      <c r="B361" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C361" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A362" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C350" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="1" t="s">
+      <c r="B362" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C362" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A363" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="1" t="s">
+      <c r="B363" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="C363" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A364" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="1" t="s">
+      <c r="B364" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="C364" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A365" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354" s="1" t="s">
+      <c r="B365" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="C365" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A366" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C354" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="1" t="s">
+      <c r="B366" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="C366" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A367" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356" s="1" t="s">
+      <c r="B367" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="C367" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A368" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C356" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="A357" s="1" t="s">
+      <c r="B368" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="C368" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A369" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C357" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="1" t="s">
+      <c r="B369" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="C369" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A370" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C358" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" s="1" t="s">
+      <c r="B370" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="C370" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A371" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C359" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="C371" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A372" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C360" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="C372" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A373" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C361" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="1" t="s">
+      <c r="B373" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B362" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>711</v>
+      <c r="C373" s="1" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/excel/IndustryResource.xlsx
+++ b/src/main/resources/excel/IndustryResource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7DAB5E-2A68-49D6-8112-48DBF82C9F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF4CA4-D304-4270-B689-176F8F3DA013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="749">
   <si>
     <t>阿里巴巴概念</t>
   </si>
@@ -2269,6 +2269,16 @@
   </si>
   <si>
     <t>885556</t>
+  </si>
+  <si>
+    <t>新冠治疗</t>
+  </si>
+  <si>
+    <t>308820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>885954</t>
   </si>
 </sst>
 </file>
@@ -2611,18 +2621,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="C298" sqref="C298:C373"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="C295" sqref="C295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.64453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.234375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>712</v>
       </c>
@@ -2633,7 +2643,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>714</v>
       </c>
@@ -2641,7 +2651,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -2649,7 +2659,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2660,7 +2670,7 @@
         <v>885611</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -2671,7 +2681,7 @@
         <v>885423</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -2682,7 +2692,7 @@
         <v>885525</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -2693,7 +2703,7 @@
         <v>885867</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -2704,7 +2714,7 @@
         <v>885797</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -2715,7 +2725,7 @@
         <v>885932</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -2726,7 +2736,7 @@
         <v>885790</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -2737,7 +2747,7 @@
         <v>885829</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -2748,7 +2758,7 @@
         <v>885825</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,7 +2769,7 @@
         <v>885623</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -2770,7 +2780,7 @@
         <v>885789</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -2781,7 +2791,7 @@
         <v>885620</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -2792,7 +2802,7 @@
         <v>885729</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -2803,7 +2813,7 @@
         <v>885640</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -2814,7 +2824,7 @@
         <v>885835</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -2825,7 +2835,7 @@
         <v>885832</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2836,7 +2846,7 @@
         <v>885886</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -2847,7 +2857,7 @@
         <v>885761</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -2858,7 +2868,7 @@
         <v>885831</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -2869,7 +2879,7 @@
         <v>885816</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
@@ -2880,7 +2890,7 @@
         <v>885662</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -2891,7 +2901,7 @@
         <v>885461</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
@@ -2902,7 +2912,7 @@
         <v>885935</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>728</v>
       </c>
@@ -2913,7 +2923,7 @@
         <v>885946</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -2924,7 +2934,7 @@
         <v>885413</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -2935,7 +2945,7 @@
         <v>885855</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
@@ -2946,7 +2956,7 @@
         <v>885921</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
@@ -2957,7 +2967,7 @@
         <v>885810</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
@@ -2968,7 +2978,7 @@
         <v>885566</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
@@ -2979,7 +2989,7 @@
         <v>885904</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -2990,7 +3000,7 @@
         <v>885893</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -3001,7 +3011,7 @@
         <v>885452</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -3012,7 +3022,7 @@
         <v>885710</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -3023,7 +3033,7 @@
         <v>885737</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
@@ -3034,7 +3044,7 @@
         <v>885420</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
@@ -3045,7 +3055,7 @@
         <v>885908</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
@@ -3056,7 +3066,7 @@
         <v>885692</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -3067,7 +3077,7 @@
         <v>885819</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>729</v>
       </c>
@@ -3078,7 +3088,7 @@
         <v>885949</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>109</v>
       </c>
@@ -3089,7 +3099,7 @@
         <v>885944</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>110</v>
       </c>
@@ -3100,7 +3110,7 @@
         <v>885846</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>111</v>
       </c>
@@ -3111,7 +3121,7 @@
         <v>885787</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>730</v>
       </c>
@@ -3122,7 +3132,7 @@
         <v>885953</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>112</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>885943</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>113</v>
       </c>
@@ -3144,7 +3154,7 @@
         <v>885540</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>114</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>885861</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
@@ -3166,7 +3176,7 @@
         <v>885856</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
@@ -3177,7 +3187,7 @@
         <v>885873</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
@@ -3188,7 +3198,7 @@
         <v>885641</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>121</v>
       </c>
@@ -3199,7 +3209,7 @@
         <v>885805</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>123</v>
       </c>
@@ -3210,7 +3220,7 @@
         <v>885551</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
@@ -3221,7 +3231,7 @@
         <v>885617</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>127</v>
       </c>
@@ -3232,7 +3242,7 @@
         <v>885889</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>129</v>
       </c>
@@ -3243,7 +3253,7 @@
         <v>885786</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
@@ -3254,7 +3264,7 @@
         <v>885909</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
@@ -3265,7 +3275,7 @@
         <v>885427</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>135</v>
       </c>
@@ -3276,7 +3286,7 @@
         <v>885562</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>137</v>
       </c>
@@ -3287,7 +3297,7 @@
         <v>885924</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>139</v>
       </c>
@@ -3298,7 +3308,7 @@
         <v>885619</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>141</v>
       </c>
@@ -3309,7 +3319,7 @@
         <v>885818</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>143</v>
       </c>
@@ -3320,7 +3330,7 @@
         <v>885783</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>145</v>
       </c>
@@ -3331,7 +3341,7 @@
         <v>885930</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>147</v>
       </c>
@@ -3342,7 +3352,7 @@
         <v>885657</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
@@ -3353,7 +3363,7 @@
         <v>885739</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>151</v>
       </c>
@@ -3364,7 +3374,7 @@
         <v>885734</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>153</v>
       </c>
@@ -3375,7 +3385,7 @@
         <v>885531</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>155</v>
       </c>
@@ -3386,7 +3396,7 @@
         <v>885864</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
@@ -3397,7 +3407,7 @@
         <v>885410</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>159</v>
       </c>
@@ -3408,7 +3418,7 @@
         <v>885844</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>161</v>
       </c>
@@ -3419,7 +3429,7 @@
         <v>885568</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>163</v>
       </c>
@@ -3430,7 +3440,7 @@
         <v>885700</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
@@ -3441,7 +3451,7 @@
         <v>885865</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>167</v>
       </c>
@@ -3452,7 +3462,7 @@
         <v>885747</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>169</v>
       </c>
@@ -3463,7 +3473,7 @@
         <v>885426</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>171</v>
       </c>
@@ -3474,7 +3484,7 @@
         <v>885894</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>173</v>
       </c>
@@ -3485,7 +3495,7 @@
         <v>885939</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>175</v>
       </c>
@@ -3496,7 +3506,7 @@
         <v>885884</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>177</v>
       </c>
@@ -3507,7 +3517,7 @@
         <v>885795</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>179</v>
       </c>
@@ -3518,7 +3528,7 @@
         <v>885733</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>181</v>
       </c>
@@ -3529,7 +3539,7 @@
         <v>885701</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>183</v>
       </c>
@@ -3540,7 +3550,7 @@
         <v>885571</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>185</v>
       </c>
@@ -3551,7 +3561,7 @@
         <v>885849</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>187</v>
       </c>
@@ -3562,7 +3572,7 @@
         <v>885827</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>189</v>
       </c>
@@ -3573,7 +3583,7 @@
         <v>885917</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>191</v>
       </c>
@@ -3584,7 +3594,7 @@
         <v>885906</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>193</v>
       </c>
@@ -3595,7 +3605,7 @@
         <v>885647</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>195</v>
       </c>
@@ -3606,7 +3616,7 @@
         <v>885456</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>197</v>
       </c>
@@ -3617,7 +3627,7 @@
         <v>885765</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>199</v>
       </c>
@@ -3628,7 +3638,7 @@
         <v>885923</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>201</v>
       </c>
@@ -3639,7 +3649,7 @@
         <v>885938</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>203</v>
       </c>
@@ -3650,7 +3660,7 @@
         <v>885530</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>205</v>
       </c>
@@ -3661,7 +3671,7 @@
         <v>885903</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>207</v>
       </c>
@@ -3672,7 +3682,7 @@
         <v>885806</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>209</v>
       </c>
@@ -3683,7 +3693,7 @@
         <v>885843</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>211</v>
       </c>
@@ -3694,7 +3704,7 @@
         <v>885834</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>213</v>
       </c>
@@ -3705,7 +3715,7 @@
         <v>885520</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>215</v>
       </c>
@@ -3716,7 +3726,7 @@
         <v>885767</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>217</v>
       </c>
@@ -3727,7 +3737,7 @@
         <v>885675</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>219</v>
       </c>
@@ -3738,7 +3748,7 @@
         <v>885543</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>221</v>
       </c>
@@ -3749,7 +3759,7 @@
         <v>885563</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>223</v>
       </c>
@@ -3760,7 +3770,7 @@
         <v>885433</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>225</v>
       </c>
@@ -3771,7 +3781,7 @@
         <v>885560</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>227</v>
       </c>
@@ -3782,7 +3792,7 @@
         <v>885514</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>229</v>
       </c>
@@ -3793,7 +3803,7 @@
         <v>885890</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>231</v>
       </c>
@@ -3804,7 +3814,7 @@
         <v>885517</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>233</v>
       </c>
@@ -3815,7 +3825,7 @@
         <v>885578</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>235</v>
       </c>
@@ -3826,7 +3836,7 @@
         <v>885703</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>237</v>
       </c>
@@ -3837,7 +3847,7 @@
         <v>885743</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>239</v>
       </c>
@@ -3848,7 +3858,7 @@
         <v>885587</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>241</v>
       </c>
@@ -3859,7 +3869,7 @@
         <v>885907</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>243</v>
       </c>
@@ -3870,7 +3880,7 @@
         <v>885901</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>245</v>
       </c>
@@ -3881,7 +3891,7 @@
         <v>885748</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>247</v>
       </c>
@@ -3892,7 +3902,7 @@
         <v>885802</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>249</v>
       </c>
@@ -3903,7 +3913,7 @@
         <v>885880</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>251</v>
       </c>
@@ -3914,7 +3924,7 @@
         <v>885918</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>253</v>
       </c>
@@ -3925,7 +3935,7 @@
         <v>885642</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>255</v>
       </c>
@@ -3936,7 +3946,7 @@
         <v>885854</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>257</v>
       </c>
@@ -3947,7 +3957,7 @@
         <v>885502</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>259</v>
       </c>
@@ -3958,7 +3968,7 @@
         <v>885730</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>261</v>
       </c>
@@ -3969,7 +3979,7 @@
         <v>885863</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>263</v>
       </c>
@@ -3980,7 +3990,7 @@
         <v>885879</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>265</v>
       </c>
@@ -3991,7 +4001,7 @@
         <v>885936</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>267</v>
       </c>
@@ -4002,7 +4012,7 @@
         <v>885505</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>269</v>
       </c>
@@ -4013,7 +4023,7 @@
         <v>885749</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>271</v>
       </c>
@@ -4024,7 +4034,7 @@
         <v>885398</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>273</v>
       </c>
@@ -4035,7 +4045,7 @@
         <v>885914</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>275</v>
       </c>
@@ -4046,7 +4056,7 @@
         <v>885898</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>277</v>
       </c>
@@ -4057,7 +4067,7 @@
         <v>885875</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>279</v>
       </c>
@@ -4068,7 +4078,7 @@
         <v>885490</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>281</v>
       </c>
@@ -4079,7 +4089,7 @@
         <v>885745</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>283</v>
       </c>
@@ -4090,7 +4100,7 @@
         <v>885928</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>285</v>
       </c>
@@ -4101,7 +4111,7 @@
         <v>885933</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>731</v>
       </c>
@@ -4112,7 +4122,7 @@
         <v>885869</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>287</v>
       </c>
@@ -4123,7 +4133,7 @@
         <v>885629</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>289</v>
       </c>
@@ -4134,7 +4144,7 @@
         <v>885706</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>291</v>
       </c>
@@ -4145,7 +4155,7 @@
         <v>885812</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>293</v>
       </c>
@@ -4156,7 +4166,7 @@
         <v>885738</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>295</v>
       </c>
@@ -4167,7 +4177,7 @@
         <v>885937</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>297</v>
       </c>
@@ -4178,7 +4188,7 @@
         <v>885780</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>299</v>
       </c>
@@ -4189,7 +4199,7 @@
         <v>885910</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>301</v>
       </c>
@@ -4200,7 +4210,7 @@
         <v>885376</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>303</v>
       </c>
@@ -4211,7 +4221,7 @@
         <v>885555</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>305</v>
       </c>
@@ -4222,7 +4232,7 @@
         <v>885690</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>307</v>
       </c>
@@ -4233,7 +4243,7 @@
         <v>885902</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>309</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>885545</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>311</v>
       </c>
@@ -4255,7 +4265,7 @@
         <v>885945</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>313</v>
       </c>
@@ -4266,7 +4276,7 @@
         <v>885570</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>315</v>
       </c>
@@ -4277,7 +4287,7 @@
         <v>885852</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>317</v>
       </c>
@@ -4288,7 +4298,7 @@
         <v>885508</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>319</v>
       </c>
@@ -4299,7 +4309,7 @@
         <v>885757</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>321</v>
       </c>
@@ -4310,7 +4320,7 @@
         <v>885633</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>323</v>
       </c>
@@ -4321,7 +4331,7 @@
         <v>885775</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>325</v>
       </c>
@@ -4332,7 +4342,7 @@
         <v>885798</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>327</v>
       </c>
@@ -4343,7 +4353,7 @@
         <v>885728</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>329</v>
       </c>
@@ -4354,7 +4364,7 @@
         <v>885839</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>331</v>
       </c>
@@ -4365,7 +4375,7 @@
         <v>885759</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>333</v>
       </c>
@@ -4376,7 +4386,7 @@
         <v>885338</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>335</v>
       </c>
@@ -4387,7 +4397,7 @@
         <v>885809</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>732</v>
       </c>
@@ -4398,7 +4408,7 @@
         <v>885948</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>337</v>
       </c>
@@ -4409,7 +4419,7 @@
         <v>885462</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>339</v>
       </c>
@@ -4420,7 +4430,7 @@
         <v>885792</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>341</v>
       </c>
@@ -4431,7 +4441,7 @@
         <v>885493</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>343</v>
       </c>
@@ -4442,7 +4452,7 @@
         <v>885472</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>345</v>
       </c>
@@ -4453,7 +4463,7 @@
         <v>885694</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>347</v>
       </c>
@@ -4464,7 +4474,7 @@
         <v>885845</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>349</v>
       </c>
@@ -4475,7 +4485,7 @@
         <v>885403</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>351</v>
       </c>
@@ -4486,7 +4496,7 @@
         <v>885911</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>353</v>
       </c>
@@ -4497,7 +4507,7 @@
         <v>885781</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>355</v>
       </c>
@@ -4508,7 +4518,7 @@
         <v>885355</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>357</v>
       </c>
@@ -4519,7 +4529,7 @@
         <v>885406</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>359</v>
       </c>
@@ -4530,7 +4540,7 @@
         <v>885895</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>733</v>
       </c>
@@ -4538,7 +4548,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>362</v>
       </c>
@@ -4549,7 +4559,7 @@
         <v>885457</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>364</v>
       </c>
@@ -4560,7 +4570,7 @@
         <v>885572</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>366</v>
       </c>
@@ -4571,7 +4581,7 @@
         <v>885782</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>368</v>
       </c>
@@ -4582,7 +4592,7 @@
         <v>885942</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>370</v>
       </c>
@@ -4593,7 +4603,7 @@
         <v>885887</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>372</v>
       </c>
@@ -4604,7 +4614,7 @@
         <v>885866</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>374</v>
       </c>
@@ -4615,7 +4625,7 @@
         <v>885820</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>376</v>
       </c>
@@ -4626,7 +4636,7 @@
         <v>885842</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>378</v>
       </c>
@@ -4637,7 +4647,7 @@
         <v>885796</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>380</v>
       </c>
@@ -4648,7 +4658,7 @@
         <v>885699</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>382</v>
       </c>
@@ -4659,7 +4669,7 @@
         <v>885697</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>384</v>
       </c>
@@ -4670,7 +4680,7 @@
         <v>885652</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>386</v>
       </c>
@@ -4681,7 +4691,7 @@
         <v>885871</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>388</v>
       </c>
@@ -4692,7 +4702,7 @@
         <v>885650</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>390</v>
       </c>
@@ -4703,7 +4713,7 @@
         <v>885919</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>392</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>885428</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>394</v>
       </c>
@@ -4725,7 +4735,7 @@
         <v>885425</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>396</v>
       </c>
@@ -4736,7 +4746,7 @@
         <v>885779</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>398</v>
       </c>
@@ -4747,7 +4757,7 @@
         <v>885750</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>400</v>
       </c>
@@ -4758,7 +4768,7 @@
         <v>885467</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>402</v>
       </c>
@@ -4769,7 +4779,7 @@
         <v>885487</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>404</v>
       </c>
@@ -4780,7 +4790,7 @@
         <v>885430</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>406</v>
       </c>
@@ -4791,7 +4801,7 @@
         <v>885615</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>408</v>
       </c>
@@ -4802,7 +4812,7 @@
         <v>885916</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>410</v>
       </c>
@@ -4813,7 +4823,7 @@
         <v>885500</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>412</v>
       </c>
@@ -4824,7 +4834,7 @@
         <v>885439</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>414</v>
       </c>
@@ -4835,7 +4845,7 @@
         <v>885788</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>416</v>
       </c>
@@ -4846,7 +4856,7 @@
         <v>885876</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>418</v>
       </c>
@@ -4857,7 +4867,7 @@
         <v>885603</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>420</v>
       </c>
@@ -4868,7 +4878,7 @@
         <v>885753</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>422</v>
       </c>
@@ -4879,7 +4889,7 @@
         <v>885925</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>424</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>885574</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>426</v>
       </c>
@@ -4901,7 +4911,7 @@
         <v>885418</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>428</v>
       </c>
@@ -4912,7 +4922,7 @@
         <v>885940</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>430</v>
       </c>
@@ -4923,7 +4933,7 @@
         <v>885312</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>432</v>
       </c>
@@ -4934,7 +4944,7 @@
         <v>885564</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>434</v>
       </c>
@@ -4945,7 +4955,7 @@
         <v>885736</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>436</v>
       </c>
@@ -4956,7 +4966,7 @@
         <v>885768</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>438</v>
       </c>
@@ -4967,7 +4977,7 @@
         <v>885412</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>440</v>
       </c>
@@ -4978,7 +4988,7 @@
         <v>885774</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>442</v>
       </c>
@@ -4989,7 +4999,7 @@
         <v>885868</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>444</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>885915</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>446</v>
       </c>
@@ -5011,7 +5021,7 @@
         <v>885754</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>448</v>
       </c>
@@ -5022,7 +5032,7 @@
         <v>885744</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>450</v>
       </c>
@@ -5033,7 +5043,7 @@
         <v>885705</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>452</v>
       </c>
@@ -5044,7 +5054,7 @@
         <v>885882</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>454</v>
       </c>
@@ -5055,7 +5065,7 @@
         <v>885800</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>456</v>
       </c>
@@ -5066,7 +5076,7 @@
         <v>885552</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>458</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>885785</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>460</v>
       </c>
@@ -5088,7 +5098,7 @@
         <v>885769</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>462</v>
       </c>
@@ -5099,7 +5109,7 @@
         <v>885544</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>464</v>
       </c>
@@ -5110,7 +5120,7 @@
         <v>885598</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>466</v>
       </c>
@@ -5121,7 +5131,7 @@
         <v>885345</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>468</v>
       </c>
@@ -5132,7 +5142,7 @@
         <v>885784</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>470</v>
       </c>
@@ -5143,7 +5153,7 @@
         <v>885431</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>472</v>
       </c>
@@ -5154,7 +5164,7 @@
         <v>885756</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>474</v>
       </c>
@@ -5165,7 +5175,7 @@
         <v>885891</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>476</v>
       </c>
@@ -5176,7 +5186,7 @@
         <v>885814</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>478</v>
       </c>
@@ -5187,7 +5197,7 @@
         <v>885459</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>480</v>
       </c>
@@ -5198,7 +5208,7 @@
         <v>885899</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>482</v>
       </c>
@@ -5209,7 +5219,7 @@
         <v>885284</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>484</v>
       </c>
@@ -5220,7 +5230,7 @@
         <v>885343</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>734</v>
       </c>
@@ -5231,7 +5241,7 @@
         <v>885950</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>486</v>
       </c>
@@ -5242,7 +5252,7 @@
         <v>885709</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>488</v>
       </c>
@@ -5253,7 +5263,7 @@
         <v>885926</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>490</v>
       </c>
@@ -5264,7 +5274,7 @@
         <v>885851</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>492</v>
       </c>
@@ -5275,7 +5285,7 @@
         <v>885808</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>494</v>
       </c>
@@ -5286,7 +5296,7 @@
         <v>885522</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>496</v>
       </c>
@@ -5297,7 +5307,7 @@
         <v>885595</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>498</v>
       </c>
@@ -5308,7 +5318,7 @@
         <v>885922</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>500</v>
       </c>
@@ -5319,7 +5329,7 @@
         <v>885838</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>502</v>
       </c>
@@ -5330,7 +5340,7 @@
         <v>885372</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>504</v>
       </c>
@@ -5341,7 +5351,7 @@
         <v>885494</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>506</v>
       </c>
@@ -5352,7 +5362,7 @@
         <v>885333</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>508</v>
       </c>
@@ -5363,7 +5373,7 @@
         <v>885883</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>510</v>
       </c>
@@ -5374,7 +5384,7 @@
         <v>885913</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>512</v>
       </c>
@@ -5385,7 +5395,7 @@
         <v>885539</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>514</v>
       </c>
@@ -5396,7 +5406,7 @@
         <v>885912</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>735</v>
       </c>
@@ -5407,7 +5417,7 @@
         <v>885952</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>516</v>
       </c>
@@ -5418,7 +5428,7 @@
         <v>885934</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>518</v>
       </c>
@@ -5429,7 +5439,7 @@
         <v>885521</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>520</v>
       </c>
@@ -5440,7 +5450,7 @@
         <v>885811</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>522</v>
       </c>
@@ -5451,7 +5461,7 @@
         <v>885881</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>524</v>
       </c>
@@ -5462,7 +5472,7 @@
         <v>885362</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>526</v>
       </c>
@@ -5473,7 +5483,7 @@
         <v>885874</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>528</v>
       </c>
@@ -5484,7 +5494,7 @@
         <v>885772</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>736</v>
       </c>
@@ -5495,7 +5505,7 @@
         <v>885951</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>530</v>
       </c>
@@ -5506,7 +5516,7 @@
         <v>885661</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>532</v>
       </c>
@@ -5517,7 +5527,7 @@
         <v>885480</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>534</v>
       </c>
@@ -5528,7 +5538,7 @@
         <v>885497</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>536</v>
       </c>
@@ -5539,7 +5549,7 @@
         <v>885860</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>538</v>
       </c>
@@ -5550,7 +5560,7 @@
         <v>885740</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>540</v>
       </c>
@@ -5561,7 +5571,7 @@
         <v>885378</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>542</v>
       </c>
@@ -5572,7 +5582,7 @@
         <v>885454</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>544</v>
       </c>
@@ -5583,7 +5593,7 @@
         <v>885311</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>546</v>
       </c>
@@ -5594,7 +5604,7 @@
         <v>885478</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>548</v>
       </c>
@@ -5605,7 +5615,7 @@
         <v>885766</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>550</v>
       </c>
@@ -5616,7 +5626,7 @@
         <v>885770</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>552</v>
       </c>
@@ -5627,7 +5637,7 @@
         <v>885402</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>554</v>
       </c>
@@ -5638,7 +5648,7 @@
         <v>885771</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>556</v>
       </c>
@@ -5649,7 +5659,7 @@
         <v>885941</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>558</v>
       </c>
@@ -5660,7 +5670,7 @@
         <v>885791</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>560</v>
       </c>
@@ -5671,7 +5681,7 @@
         <v>885586</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>562</v>
       </c>
@@ -5682,7 +5692,7 @@
         <v>885591</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>564</v>
       </c>
@@ -5693,7 +5703,7 @@
         <v>885897</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>566</v>
       </c>
@@ -5704,7 +5714,7 @@
         <v>885741</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>568</v>
       </c>
@@ -5715,7 +5725,7 @@
         <v>885929</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>570</v>
       </c>
@@ -5726,7 +5736,7 @@
         <v>885877</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>572</v>
       </c>
@@ -5737,7 +5747,7 @@
         <v>885905</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>574</v>
       </c>
@@ -5748,7 +5758,7 @@
         <v>885573</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>576</v>
       </c>
@@ -5759,7 +5769,7 @@
         <v>885663</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>578</v>
       </c>
@@ -5770,7 +5780,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>580</v>
       </c>
@@ -5781,7 +5791,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>582</v>
       </c>
@@ -5792,7 +5802,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>584</v>
       </c>
@@ -5803,7 +5813,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>586</v>
       </c>
@@ -5814,7 +5824,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>588</v>
       </c>
@@ -5825,7 +5835,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>590</v>
       </c>
@@ -5836,16 +5846,24 @@
         <v>745</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C295" s="1"/>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>737</v>
       </c>
@@ -5856,7 +5874,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>592</v>
       </c>
@@ -5867,7 +5885,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>594</v>
       </c>
@@ -5878,7 +5896,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>596</v>
       </c>
@@ -5889,7 +5907,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>598</v>
       </c>
@@ -5900,7 +5918,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>600</v>
       </c>
@@ -5911,7 +5929,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>602</v>
       </c>
@@ -5922,7 +5940,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>604</v>
       </c>
@@ -5933,7 +5951,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>606</v>
       </c>
@@ -5944,7 +5962,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>608</v>
       </c>
@@ -5955,7 +5973,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>609</v>
       </c>
@@ -5966,7 +5984,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>610</v>
       </c>
@@ -5977,7 +5995,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>611</v>
       </c>
@@ -5988,7 +6006,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>612</v>
       </c>
@@ -5999,7 +6017,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>613</v>
       </c>
@@ -6010,7 +6028,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>614</v>
       </c>
@@ -6021,7 +6039,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>615</v>
       </c>
@@ -6032,7 +6050,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>616</v>
       </c>
@@ -6043,7 +6061,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>617</v>
       </c>
@@ -6054,7 +6072,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>618</v>
       </c>
@@ -6065,7 +6083,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>619</v>
       </c>
@@ -6076,7 +6094,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>620</v>
       </c>
@@ -6087,7 +6105,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>621</v>
       </c>
@@ -6098,7 +6116,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>622</v>
       </c>
@@ -6109,7 +6127,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>623</v>
       </c>
@@ -6120,7 +6138,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>624</v>
       </c>
@@ -6131,7 +6149,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>625</v>
       </c>
@@ -6142,7 +6160,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>626</v>
       </c>
@@ -6153,7 +6171,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>627</v>
       </c>
@@ -6164,7 +6182,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>628</v>
       </c>
@@ -6175,7 +6193,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>629</v>
       </c>
@@ -6186,7 +6204,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>630</v>
       </c>
@@ -6197,7 +6215,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>631</v>
       </c>
@@ -6208,7 +6226,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>632</v>
       </c>
@@ -6219,7 +6237,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>633</v>
       </c>
@@ -6230,7 +6248,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>634</v>
       </c>
@@ -6241,7 +6259,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>635</v>
       </c>
@@ -6252,7 +6270,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>636</v>
       </c>
@@ -6263,7 +6281,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>637</v>
       </c>
@@ -6274,7 +6292,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>638</v>
       </c>
@@ -6285,7 +6303,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>640</v>
       </c>
@@ -6296,7 +6314,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>642</v>
       </c>
@@ -6307,7 +6325,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>644</v>
       </c>
@@ -6318,7 +6336,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>646</v>
       </c>
@@ -6329,7 +6347,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>648</v>
       </c>
@@ -6340,7 +6358,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>650</v>
       </c>
@@ -6351,7 +6369,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>652</v>
       </c>
@@ -6362,7 +6380,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>654</v>
       </c>
@@ -6373,7 +6391,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>656</v>
       </c>
@@ -6384,7 +6402,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>658</v>
       </c>
@@ -6395,7 +6413,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>660</v>
       </c>
@@ -6406,7 +6424,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>662</v>
       </c>
@@ -6417,7 +6435,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>664</v>
       </c>
@@ -6428,7 +6446,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>666</v>
       </c>
@@ -6439,7 +6457,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>668</v>
       </c>
@@ -6450,7 +6468,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>670</v>
       </c>
@@ -6461,7 +6479,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>672</v>
       </c>
@@ -6472,7 +6490,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>674</v>
       </c>
@@ -6483,7 +6501,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>676</v>
       </c>
@@ -6494,7 +6512,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>678</v>
       </c>
@@ -6505,7 +6523,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>680</v>
       </c>
@@ -6516,7 +6534,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>682</v>
       </c>
@@ -6527,7 +6545,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>684</v>
       </c>
@@ -6538,7 +6556,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>686</v>
       </c>
@@ -6549,7 +6567,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>688</v>
       </c>
@@ -6560,7 +6578,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>690</v>
       </c>
@@ -6571,7 +6589,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>692</v>
       </c>
@@ -6582,7 +6600,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>694</v>
       </c>
@@ -6593,7 +6611,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>696</v>
       </c>
@@ -6604,7 +6622,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>698</v>
       </c>
@@ -6615,7 +6633,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>700</v>
       </c>
@@ -6626,7 +6644,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>702</v>
       </c>
@@ -6637,7 +6655,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>704</v>
       </c>
@@ -6648,7 +6666,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>706</v>
       </c>
@@ -6659,7 +6677,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>708</v>
       </c>
@@ -6670,7 +6688,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>710</v>
       </c>

--- a/src/main/resources/excel/IndustryResource.xlsx
+++ b/src/main/resources/excel/IndustryResource.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF4CA4-D304-4270-B689-176F8F3DA013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1360542C-582F-44CD-B839-F8B697EA9687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="753">
   <si>
     <t>阿里巴巴概念</t>
   </si>
@@ -2279,6 +2279,20 @@
   </si>
   <si>
     <t>885954</t>
+  </si>
+  <si>
+    <t>308822</t>
+  </si>
+  <si>
+    <t>重组蛋白</t>
+  </si>
+  <si>
+    <t>308606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧政务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2619,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C373"/>
+  <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="C295" sqref="C295"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A298" sqref="A298:XFD298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5858,844 +5872,862 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>750</v>
+      </c>
       <c r="C296" s="1"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="C297" s="1"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>737</v>
-      </c>
+      <c r="C298" s="1"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>592</v>
-      </c>
+      <c r="C299" s="1"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>594</v>
+        <v>737</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>595</v>
+        <v>738</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>594</v>
+        <v>737</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>40</v>
+        <v>605</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>41</v>
+        <v>607</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>639</v>
+        <v>68</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>641</v>
+        <v>69</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="B375" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="C375" s="1" t="s">
         <v>710</v>
       </c>
     </row>

--- a/src/main/resources/excel/IndustryResource.xlsx
+++ b/src/main/resources/excel/IndustryResource.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1360542C-582F-44CD-B839-F8B697EA9687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1006FB18-1CFA-4128-93FA-092A88453786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="757">
   <si>
     <t>阿里巴巴概念</t>
   </si>
@@ -2293,6 +2293,18 @@
   <si>
     <t>智慧政务</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动概念 </t>
+  </si>
+  <si>
+    <t>智慧灯杆</t>
+  </si>
+  <si>
+    <t>民爆概念</t>
+  </si>
+  <si>
+    <t>硅能源 </t>
   </si>
 </sst>
 </file>
@@ -2633,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C375"/>
+  <dimension ref="A1:C381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298:XFD298"/>
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5890,844 +5902,888 @@
       <c r="C297" s="1"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B298" t="s">
+        <v>753</v>
+      </c>
       <c r="C298" s="1"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>308841</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>754</v>
+      </c>
       <c r="C299" s="1"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>737</v>
-      </c>
+      <c r="A300">
+        <v>308834</v>
+      </c>
+      <c r="B300" t="s">
+        <v>755</v>
+      </c>
+      <c r="C300" s="1"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>592</v>
-      </c>
+      <c r="A301">
+        <v>308829</v>
+      </c>
+      <c r="B301" t="s">
+        <v>756</v>
+      </c>
+      <c r="C301" s="1"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>594</v>
-      </c>
+      <c r="A302"/>
+      <c r="B302"/>
+      <c r="C302" s="1"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>596</v>
-      </c>
+      <c r="C303" s="1"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>598</v>
-      </c>
+      <c r="C304" s="1"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>600</v>
-      </c>
+      <c r="C305" s="1"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>602</v>
+        <v>737</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>603</v>
+        <v>738</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>602</v>
+        <v>737</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>40</v>
+        <v>597</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>41</v>
+        <v>599</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>42</v>
+        <v>601</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>43</v>
+        <v>603</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>44</v>
+        <v>605</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>45</v>
+        <v>607</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>639</v>
+        <v>64</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>641</v>
+        <v>65</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>643</v>
+        <v>66</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>645</v>
+        <v>67</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>647</v>
+        <v>68</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>649</v>
+        <v>69</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B381" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="C381" s="1" t="s">
         <v>710</v>
       </c>
     </row>

--- a/src/main/resources/excel/IndustryResource.xlsx
+++ b/src/main/resources/excel/IndustryResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1006FB18-1CFA-4128-93FA-092A88453786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82E8248-AA08-4BD7-BF75-84BDC0589D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="756">
   <si>
     <t>阿里巴巴概念</t>
   </si>
@@ -2293,9 +2293,6 @@
   <si>
     <t>智慧政务</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节跳动概念 </t>
   </si>
   <si>
     <t>智慧灯杆</t>
@@ -2645,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C381"/>
+  <dimension ref="A1:C380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="A299" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5902,26 +5899,26 @@
       <c r="C297" s="1"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B298" t="s">
+      <c r="A298">
+        <v>308841</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>753</v>
       </c>
       <c r="C298" s="1"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>308841</v>
-      </c>
-      <c r="B299" s="1" t="s">
+        <v>308834</v>
+      </c>
+      <c r="B299" t="s">
         <v>754</v>
       </c>
       <c r="C299" s="1"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>308834</v>
+        <v>308829</v>
       </c>
       <c r="B300" t="s">
         <v>755</v>
@@ -5929,17 +5926,11 @@
       <c r="C300" s="1"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301">
-        <v>308829</v>
-      </c>
-      <c r="B301" t="s">
-        <v>756</v>
-      </c>
+      <c r="A301"/>
+      <c r="B301"/>
       <c r="C301" s="1"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302"/>
-      <c r="B302"/>
       <c r="C302" s="1"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -5949,841 +5940,838 @@
       <c r="C304" s="1"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C305" s="1"/>
+      <c r="A305" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>737</v>
+        <v>592</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>738</v>
+        <v>593</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>737</v>
+        <v>592</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>607</v>
+        <v>40</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>69</v>
+        <v>639</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="C381" s="1" t="s">
         <v>710</v>
       </c>
     </row>
